--- a/app/price/Прайс_сетка_ochagh.com.ua_Кладочная.xlsx
+++ b/app/price/Прайс_сетка_ochagh.com.ua_Кладочная.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'99'!$8:$12</definedName>
     <definedName name="О125" localSheetId="0">#REF!</definedName>
     <definedName name="О125">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'99'!$A$1:$P$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'99'!$A$1:$O$103</definedName>
     <definedName name="с" localSheetId="0">#REF!</definedName>
     <definedName name="с">#REF!</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="116">
   <si>
     <t>Наименование продукции</t>
   </si>
@@ -171,9 +171,6 @@
     <t>120Х120</t>
   </si>
   <si>
-    <t>Ø 4,3</t>
-  </si>
-  <si>
     <t>5*25</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
   </si>
   <si>
     <t>6*11</t>
-  </si>
-  <si>
-    <t>6*13</t>
   </si>
   <si>
     <t xml:space="preserve">Сетка кладочная Супер ЭКОНОМ (Т.У)  сетка из проволоки ВР 1 ГОСТ 6727-80 </t>
@@ -226,9 +220,6 @@
   </si>
   <si>
     <t>170х170</t>
-  </si>
-  <si>
-    <t>Ø 3,5</t>
   </si>
   <si>
     <t xml:space="preserve">                «АЛЬФА-БАНК»</t>
@@ -375,9 +366,6 @@
     <t>С Ув. Руслан</t>
   </si>
   <si>
-    <t>14*25</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                 </t>
   </si>
   <si>
@@ -417,6 +405,9 @@
   </si>
   <si>
     <t>Диллер</t>
+  </si>
+  <si>
+    <t>Ø 2,3</t>
   </si>
 </sst>
 </file>
@@ -1008,30 +999,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1106,6 +1073,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,7 +1350,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm rot="16200000">
-          <a:off x="2297908" y="23383876"/>
+          <a:off x="2297908" y="22943345"/>
           <a:ext cx="0" cy="4262435"/>
           <a:chOff x="8777" y="1764"/>
           <a:chExt cx="2710" cy="4716"/>
@@ -1769,7 +1760,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>635795</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
+      <xdr:rowOff>159542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1815,7 +1806,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>635795</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>159544</xdr:rowOff>
+      <xdr:rowOff>159543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2144,8 +2135,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="13" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M68" sqref="M68:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,12 +2175,12 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
@@ -2205,15 +2196,15 @@
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -2228,12 +2219,12 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="30">
         <v>300346</v>
@@ -2250,16 +2241,16 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="76" t="s">
-        <v>110</v>
+      <c r="O4" s="68" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="33"/>
@@ -2273,16 +2264,16 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="77" t="s">
-        <v>111</v>
+      <c r="O5" s="69" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
@@ -2297,7 +2288,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2318,34 +2309,34 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -2369,8 +2360,8 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2385,13 +2376,13 @@
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="56" t="s">
         <v>2</v>
       </c>
@@ -2408,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="57" t="s">
         <v>8</v>
@@ -2417,13 +2408,13 @@
         <v>9</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="98" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="O12" s="90" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2467,7 +2458,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
       <c r="I14" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -2485,7 +2476,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="66"/>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>38</v>
@@ -2493,8 +2484,8 @@
       <c r="I15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
+      <c r="J15" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>14</v>
@@ -2502,36 +2493,34 @@
       <c r="L15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="78">
-        <f>O15*1.15</f>
-        <v>18.707624999999997</v>
-      </c>
-      <c r="N15" s="79">
-        <f>O15*1.1</f>
-        <v>17.89425</v>
-      </c>
-      <c r="O15" s="80">
+      <c r="M15" s="70">
+        <v>18.212499999999999</v>
+      </c>
+      <c r="N15" s="71">
+        <v>16.755499999999998</v>
+      </c>
+      <c r="O15" s="72">
+        <v>14.57</v>
+      </c>
+      <c r="P15" s="72">
         <v>16.267499999999998</v>
       </c>
-      <c r="P15" s="80">
-        <v>16.267499999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="68" t="s">
+      <c r="A16" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="4">
         <v>631</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>37</v>
@@ -2539,8 +2528,8 @@
       <c r="I16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>13</v>
+      <c r="J16" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>14</v>
@@ -2548,32 +2537,30 @@
       <c r="L16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="78">
-        <f t="shared" ref="M16:M38" si="0">O16*1.15</f>
-        <v>12.756374999999998</v>
-      </c>
-      <c r="N16" s="79">
-        <f t="shared" ref="N16:N38" si="1">O16*1.1</f>
-        <v>12.201750000000001</v>
-      </c>
-      <c r="O16" s="81">
+      <c r="M16" s="70">
+        <v>13.071874999999999</v>
+      </c>
+      <c r="N16" s="71">
+        <v>12.026124999999999</v>
+      </c>
+      <c r="O16" s="73">
+        <v>10.4575</v>
+      </c>
+      <c r="P16" s="73">
         <v>11.092499999999999</v>
       </c>
-      <c r="P16" s="81">
-        <v>11.092499999999999</v>
-      </c>
     </row>
     <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="4">
         <v>631</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>38</v>
@@ -2581,8 +2568,8 @@
       <c r="I17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>13</v>
+      <c r="J17" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>18</v>
@@ -2590,32 +2577,30 @@
       <c r="L17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="78">
-        <f t="shared" si="0"/>
-        <v>25.357499999999998</v>
-      </c>
-      <c r="N17" s="79">
-        <f t="shared" si="1"/>
-        <v>24.255000000000003</v>
-      </c>
-      <c r="O17" s="80">
+      <c r="M17" s="70">
+        <v>24.674999999999997</v>
+      </c>
+      <c r="N17" s="71">
+        <v>22.700999999999997</v>
+      </c>
+      <c r="O17" s="72">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="P17" s="72">
         <v>22.05</v>
       </c>
-      <c r="P17" s="80">
-        <v>22.05</v>
-      </c>
     </row>
     <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="68"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="4">
         <v>631</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>37</v>
@@ -2623,8 +2608,8 @@
       <c r="I18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>13</v>
+      <c r="J18" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>18</v>
@@ -2632,32 +2617,30 @@
       <c r="L18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="78">
-        <f t="shared" si="0"/>
-        <v>14.49</v>
-      </c>
-      <c r="N18" s="79">
-        <f t="shared" si="1"/>
-        <v>13.860000000000003</v>
-      </c>
-      <c r="O18" s="81">
+      <c r="M18" s="70">
+        <v>14.1</v>
+      </c>
+      <c r="N18" s="71">
+        <v>12.971999999999998</v>
+      </c>
+      <c r="O18" s="73">
+        <v>11.28</v>
+      </c>
+      <c r="P18" s="73">
         <v>12.600000000000001</v>
       </c>
-      <c r="P18" s="81">
-        <v>12.600000000000001</v>
-      </c>
     </row>
     <row r="19" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="68"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="4">
         <v>631</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>39</v>
@@ -2665,8 +2648,8 @@
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>13</v>
+      <c r="J19" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>18</v>
@@ -2674,32 +2657,30 @@
       <c r="L19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="78">
-        <f t="shared" si="0"/>
-        <v>12.678749999999999</v>
-      </c>
-      <c r="N19" s="79">
-        <f t="shared" si="1"/>
-        <v>12.127500000000001</v>
-      </c>
-      <c r="O19" s="80">
+      <c r="M19" s="70">
+        <v>12.778124999999999</v>
+      </c>
+      <c r="N19" s="71">
+        <v>11.755875</v>
+      </c>
+      <c r="O19" s="72">
+        <v>10.2225</v>
+      </c>
+      <c r="P19" s="72">
         <v>11.025</v>
       </c>
-      <c r="P19" s="80">
-        <v>11.025</v>
-      </c>
     </row>
     <row r="20" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="4">
         <v>631</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>38</v>
@@ -2707,8 +2688,8 @@
       <c r="I20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>13</v>
+      <c r="J20" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>23</v>
@@ -2716,30 +2697,28 @@
       <c r="L20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="78">
-        <f t="shared" si="0"/>
-        <v>50.714999999999996</v>
-      </c>
-      <c r="N20" s="79">
-        <f t="shared" si="1"/>
-        <v>48.510000000000005</v>
-      </c>
-      <c r="O20" s="81">
+      <c r="M20" s="70">
+        <v>49.349999999999994</v>
+      </c>
+      <c r="N20" s="71">
+        <v>45.401999999999994</v>
+      </c>
+      <c r="O20" s="73">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="P20" s="73">
         <v>44.1</v>
       </c>
-      <c r="P20" s="81">
-        <v>44.1</v>
-      </c>
     </row>
     <row r="21" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="4"/>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>37</v>
@@ -2747,8 +2726,8 @@
       <c r="I21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>13</v>
+      <c r="J21" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>23</v>
@@ -2756,30 +2735,28 @@
       <c r="L21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="78">
-        <f t="shared" si="0"/>
-        <v>28.98</v>
-      </c>
-      <c r="N21" s="79">
-        <f t="shared" si="1"/>
-        <v>27.720000000000006</v>
-      </c>
-      <c r="O21" s="80">
+      <c r="M21" s="70">
+        <v>28.2</v>
+      </c>
+      <c r="N21" s="71">
+        <v>25.943999999999996</v>
+      </c>
+      <c r="O21" s="72">
+        <v>22.56</v>
+      </c>
+      <c r="P21" s="72">
         <v>25.200000000000003</v>
       </c>
-      <c r="P21" s="80">
-        <v>25.200000000000003</v>
-      </c>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="68"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="4"/>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>39</v>
@@ -2787,8 +2764,8 @@
       <c r="I22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>13</v>
+      <c r="J22" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>23</v>
@@ -2796,30 +2773,28 @@
       <c r="L22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="78">
-        <f t="shared" si="0"/>
-        <v>21.734999999999996</v>
-      </c>
-      <c r="N22" s="79">
-        <f t="shared" si="1"/>
-        <v>20.79</v>
-      </c>
-      <c r="O22" s="81">
+      <c r="M22" s="70">
+        <v>21.15</v>
+      </c>
+      <c r="N22" s="71">
+        <v>19.457999999999995</v>
+      </c>
+      <c r="O22" s="73">
+        <v>16.919999999999998</v>
+      </c>
+      <c r="P22" s="73">
         <v>18.899999999999999</v>
       </c>
-      <c r="P22" s="81">
-        <v>18.899999999999999</v>
-      </c>
     </row>
     <row r="23" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="4"/>
       <c r="G23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>38</v>
@@ -2836,30 +2811,28 @@
       <c r="L23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="78">
-        <f t="shared" si="0"/>
+      <c r="M23" s="70">
+        <v>43.365000000000002</v>
+      </c>
+      <c r="N23" s="71">
         <v>39.895799999999994</v>
       </c>
-      <c r="N23" s="79">
-        <f t="shared" si="1"/>
-        <v>38.161200000000001</v>
-      </c>
-      <c r="O23" s="80">
+      <c r="O23" s="72">
         <v>34.692</v>
       </c>
-      <c r="P23" s="80">
+      <c r="P23" s="72">
         <v>34.692</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="4"/>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>37</v>
@@ -2876,30 +2849,28 @@
       <c r="L24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="78">
-        <f t="shared" si="0"/>
+      <c r="M24" s="70">
+        <v>29.583750000000002</v>
+      </c>
+      <c r="N24" s="71">
         <v>27.21705</v>
       </c>
-      <c r="N24" s="79">
-        <f t="shared" si="1"/>
-        <v>26.033700000000003</v>
-      </c>
-      <c r="O24" s="81">
+      <c r="O24" s="73">
         <v>23.667000000000002</v>
       </c>
-      <c r="P24" s="81">
+      <c r="P24" s="73">
         <v>23.667000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="68"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>38</v>
@@ -2916,30 +2887,28 @@
       <c r="L25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="78">
-        <f t="shared" si="0"/>
+      <c r="M25" s="70">
+        <v>58.800000000000011</v>
+      </c>
+      <c r="N25" s="71">
         <v>54.096000000000004</v>
       </c>
-      <c r="N25" s="79">
-        <f t="shared" si="1"/>
-        <v>51.744000000000014</v>
-      </c>
-      <c r="O25" s="80">
+      <c r="O25" s="72">
         <v>47.040000000000006</v>
       </c>
-      <c r="P25" s="80">
+      <c r="P25" s="72">
         <v>47.040000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="68"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
       <c r="F26" s="4"/>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>37</v>
@@ -2956,30 +2925,28 @@
       <c r="L26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="78">
-        <f t="shared" si="0"/>
+      <c r="M26" s="70">
+        <v>33.6</v>
+      </c>
+      <c r="N26" s="71">
         <v>30.911999999999995</v>
       </c>
-      <c r="N26" s="79">
-        <f t="shared" si="1"/>
-        <v>29.568000000000001</v>
-      </c>
-      <c r="O26" s="81">
+      <c r="O26" s="73">
         <v>26.88</v>
       </c>
-      <c r="P26" s="81">
+      <c r="P26" s="73">
         <v>26.88</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="68"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>39</v>
@@ -2996,30 +2963,28 @@
       <c r="L27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="78">
-        <f t="shared" si="0"/>
+      <c r="M27" s="70">
+        <v>29.400000000000006</v>
+      </c>
+      <c r="N27" s="71">
         <v>27.048000000000002</v>
       </c>
-      <c r="N27" s="79">
-        <f t="shared" si="1"/>
-        <v>25.872000000000007</v>
-      </c>
-      <c r="O27" s="80">
+      <c r="O27" s="72">
         <v>23.520000000000003</v>
       </c>
-      <c r="P27" s="80">
+      <c r="P27" s="72">
         <v>23.520000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="68"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="4"/>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>38</v>
@@ -3036,30 +3001,28 @@
       <c r="L28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="78">
-        <f t="shared" si="0"/>
+      <c r="M28" s="70">
+        <v>117.60000000000002</v>
+      </c>
+      <c r="N28" s="71">
         <v>108.19200000000001</v>
       </c>
-      <c r="N28" s="79">
-        <f t="shared" si="1"/>
-        <v>103.48800000000003</v>
-      </c>
-      <c r="O28" s="81">
+      <c r="O28" s="73">
         <v>94.080000000000013</v>
       </c>
-      <c r="P28" s="81">
+      <c r="P28" s="73">
         <v>94.080000000000013</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="68"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="4"/>
       <c r="G29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>37</v>
@@ -3076,30 +3039,28 @@
       <c r="L29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="78">
-        <f t="shared" si="0"/>
+      <c r="M29" s="70">
+        <v>67.2</v>
+      </c>
+      <c r="N29" s="71">
         <v>61.823999999999991</v>
       </c>
-      <c r="N29" s="79">
-        <f t="shared" si="1"/>
-        <v>59.136000000000003</v>
-      </c>
-      <c r="O29" s="80">
+      <c r="O29" s="72">
         <v>53.76</v>
       </c>
-      <c r="P29" s="80">
+      <c r="P29" s="72">
         <v>53.76</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="4"/>
       <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>39</v>
@@ -3116,30 +3077,28 @@
       <c r="L30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="78">
-        <f t="shared" si="0"/>
+      <c r="M30" s="70">
+        <v>50.4</v>
+      </c>
+      <c r="N30" s="71">
         <v>46.367999999999995</v>
       </c>
-      <c r="N30" s="79">
-        <f t="shared" si="1"/>
-        <v>44.352000000000004</v>
-      </c>
-      <c r="O30" s="81">
+      <c r="O30" s="73">
         <v>40.32</v>
       </c>
-      <c r="P30" s="81">
+      <c r="P30" s="73">
         <v>40.32</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="68"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="4"/>
       <c r="G31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>38</v>
@@ -3156,30 +3115,28 @@
       <c r="L31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="78">
-        <f t="shared" si="0"/>
+      <c r="M31" s="70">
+        <v>93.633749999999992</v>
+      </c>
+      <c r="N31" s="71">
         <v>86.143049999999988</v>
       </c>
-      <c r="N31" s="79">
-        <f t="shared" si="1"/>
-        <v>82.3977</v>
-      </c>
-      <c r="O31" s="80">
+      <c r="O31" s="72">
         <v>74.906999999999996</v>
       </c>
-      <c r="P31" s="80">
+      <c r="P31" s="72">
         <v>74.906999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="68"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>37</v>
@@ -3196,30 +3153,28 @@
       <c r="L32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="78">
-        <f t="shared" si="0"/>
+      <c r="M32" s="70">
+        <v>53.505000000000003</v>
+      </c>
+      <c r="N32" s="71">
         <v>49.224599999999995</v>
       </c>
-      <c r="N32" s="79">
-        <f t="shared" si="1"/>
-        <v>47.084400000000009</v>
-      </c>
-      <c r="O32" s="81">
+      <c r="O32" s="73">
         <v>42.804000000000002</v>
       </c>
-      <c r="P32" s="81">
+      <c r="P32" s="73">
         <v>42.804000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="68"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>39</v>
@@ -3236,30 +3191,28 @@
       <c r="L33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="78">
-        <f t="shared" si="0"/>
+      <c r="M33" s="70">
+        <v>46.816874999999996</v>
+      </c>
+      <c r="N33" s="71">
         <v>43.071524999999994</v>
       </c>
-      <c r="N33" s="79">
-        <f t="shared" si="1"/>
-        <v>41.19885</v>
-      </c>
-      <c r="O33" s="80">
+      <c r="O33" s="72">
         <v>37.453499999999998</v>
       </c>
-      <c r="P33" s="80">
+      <c r="P33" s="72">
         <v>37.453499999999998</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="68"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="4"/>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>38</v>
@@ -3276,30 +3229,28 @@
       <c r="L34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="78">
-        <f t="shared" si="0"/>
+      <c r="M34" s="70">
+        <v>187.26749999999998</v>
+      </c>
+      <c r="N34" s="71">
         <v>172.28609999999998</v>
       </c>
-      <c r="N34" s="79">
-        <f t="shared" si="1"/>
-        <v>164.7954</v>
-      </c>
-      <c r="O34" s="81">
+      <c r="O34" s="73">
         <v>149.81399999999999</v>
       </c>
-      <c r="P34" s="81">
+      <c r="P34" s="73">
         <v>149.81399999999999</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="68"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>37</v>
@@ -3316,30 +3267,28 @@
       <c r="L35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="78">
-        <f t="shared" si="0"/>
+      <c r="M35" s="70">
+        <v>107.01</v>
+      </c>
+      <c r="N35" s="71">
         <v>98.44919999999999</v>
       </c>
-      <c r="N35" s="79">
-        <f t="shared" si="1"/>
-        <v>94.168800000000019</v>
-      </c>
-      <c r="O35" s="80">
+      <c r="O35" s="72">
         <v>85.608000000000004</v>
       </c>
-      <c r="P35" s="80">
+      <c r="P35" s="72">
         <v>85.608000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="68"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95"/>
       <c r="F36" s="4"/>
       <c r="G36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>39</v>
@@ -3356,30 +3305,28 @@
       <c r="L36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="78">
-        <f t="shared" si="0"/>
+      <c r="M36" s="70">
+        <v>80.257500000000007</v>
+      </c>
+      <c r="N36" s="71">
         <v>73.8369</v>
       </c>
-      <c r="N36" s="79">
-        <f t="shared" si="1"/>
-        <v>70.62660000000001</v>
-      </c>
-      <c r="O36" s="81">
+      <c r="O36" s="73">
         <v>64.206000000000003</v>
       </c>
-      <c r="P36" s="81">
+      <c r="P36" s="73">
         <v>64.206000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="68"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="4"/>
       <c r="G37" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>37</v>
@@ -3396,30 +3343,28 @@
       <c r="L37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="78">
-        <f t="shared" si="0"/>
+      <c r="M37" s="70">
+        <v>159.9</v>
+      </c>
+      <c r="N37" s="71">
         <v>147.108</v>
       </c>
-      <c r="N37" s="79">
-        <f t="shared" si="1"/>
-        <v>140.71200000000002</v>
-      </c>
-      <c r="O37" s="80">
+      <c r="O37" s="72">
         <v>127.92</v>
       </c>
-      <c r="P37" s="80">
+      <c r="P37" s="72">
         <v>127.92</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="68"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="4"/>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>39</v>
@@ -3436,27 +3381,25 @@
       <c r="L38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="78">
-        <f t="shared" si="0"/>
+      <c r="M38" s="70">
+        <v>119.925</v>
+      </c>
+      <c r="N38" s="71">
         <v>110.33099999999999</v>
       </c>
-      <c r="N38" s="79">
-        <f t="shared" si="1"/>
-        <v>105.53400000000001</v>
-      </c>
-      <c r="O38" s="81">
+      <c r="O38" s="73">
         <v>95.94</v>
       </c>
-      <c r="P38" s="81">
+      <c r="P38" s="73">
         <v>95.94</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="68"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="4"/>
       <c r="G39" s="7" t="s">
         <v>31</v>
@@ -3476,17 +3419,17 @@
       <c r="L39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="82"/>
+      <c r="M39" s="74"/>
       <c r="N39" s="59"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
     </row>
     <row r="40" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="68"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="4"/>
       <c r="G40" s="7" t="s">
         <v>31</v>
@@ -3506,17 +3449,17 @@
       <c r="L40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="82"/>
+      <c r="M40" s="74"/>
       <c r="N40" s="59"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="4"/>
       <c r="G41" s="7" t="s">
         <v>31</v>
@@ -3536,17 +3479,17 @@
       <c r="L41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="82"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="59"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60"/>
     </row>
     <row r="42" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="68"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="4"/>
       <c r="G42" s="7" t="s">
         <v>31</v>
@@ -3566,7 +3509,7 @@
       <c r="L42" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="82"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="59"/>
       <c r="O42" s="60"/>
       <c r="P42" s="60"/>
@@ -3580,7 +3523,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -3614,19 +3557,19 @@
       <c r="L44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="83"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="53"/>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
     </row>
     <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="68" t="s">
+      <c r="A45" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="4">
@@ -3639,7 +3582,7 @@
         <v>40</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>41</v>
@@ -3650,38 +3593,36 @@
       <c r="L45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="78">
-        <f>O45*1.15</f>
+      <c r="M45" s="70">
+        <v>17.184374999999999</v>
+      </c>
+      <c r="N45" s="71">
         <v>15.809624999999997</v>
       </c>
-      <c r="N45" s="79">
-        <f>O45*1.1</f>
-        <v>15.122249999999999</v>
-      </c>
-      <c r="O45" s="84">
+      <c r="O45" s="76">
         <v>13.747499999999999</v>
       </c>
-      <c r="P45" s="84">
+      <c r="P45" s="76">
         <v>13.747499999999999</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="68"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="4">
         <v>631</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>41</v>
@@ -3692,38 +3633,36 @@
       <c r="L46" s="8">
         <v>1</v>
       </c>
-      <c r="M46" s="78">
-        <f t="shared" ref="M46:M62" si="2">O46*1.15</f>
+      <c r="M46" s="70">
+        <v>21.590625000000003</v>
+      </c>
+      <c r="N46" s="71">
         <v>19.863374999999998</v>
       </c>
-      <c r="N46" s="79">
-        <f t="shared" ref="N46:N62" si="3">O46*1.1</f>
-        <v>18.999750000000002</v>
-      </c>
-      <c r="O46" s="85">
+      <c r="O46" s="77">
         <v>17.272500000000001</v>
       </c>
-      <c r="P46" s="85">
+      <c r="P46" s="77">
         <v>17.272500000000001</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="68"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="4">
         <v>631</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>41</v>
@@ -3734,36 +3673,34 @@
       <c r="L47" s="8">
         <v>1</v>
       </c>
-      <c r="M47" s="78">
-        <f t="shared" si="2"/>
+      <c r="M47" s="70">
+        <v>13.659375000000001</v>
+      </c>
+      <c r="N47" s="71">
         <v>12.566625</v>
       </c>
-      <c r="N47" s="79">
-        <f t="shared" si="3"/>
-        <v>12.020250000000001</v>
-      </c>
-      <c r="O47" s="84">
+      <c r="O47" s="76">
         <v>10.9275</v>
       </c>
-      <c r="P47" s="84">
+      <c r="P47" s="76">
         <v>10.9275</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="68"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="4"/>
       <c r="G48" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>41</v>
@@ -3774,36 +3711,34 @@
       <c r="L48" s="8">
         <v>2</v>
       </c>
-      <c r="M48" s="78">
-        <f t="shared" si="2"/>
+      <c r="M48" s="70">
+        <v>43.181250000000006</v>
+      </c>
+      <c r="N48" s="71">
         <v>39.726749999999996</v>
       </c>
-      <c r="N48" s="79">
-        <f t="shared" si="3"/>
-        <v>37.999500000000005</v>
-      </c>
-      <c r="O48" s="85">
+      <c r="O48" s="77">
         <v>34.545000000000002</v>
       </c>
-      <c r="P48" s="85">
+      <c r="P48" s="77">
         <v>34.545000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="68"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="95"/>
       <c r="F49" s="4"/>
       <c r="G49" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>41</v>
@@ -3814,36 +3749,34 @@
       <c r="L49" s="8">
         <v>2</v>
       </c>
-      <c r="M49" s="78">
-        <f t="shared" si="2"/>
+      <c r="M49" s="70">
+        <v>25.556249999999999</v>
+      </c>
+      <c r="N49" s="71">
         <v>23.511749999999999</v>
       </c>
-      <c r="N49" s="79">
-        <f t="shared" si="3"/>
-        <v>22.489500000000003</v>
-      </c>
-      <c r="O49" s="84">
+      <c r="O49" s="76">
         <v>20.445</v>
       </c>
-      <c r="P49" s="84">
+      <c r="P49" s="76">
         <v>20.445</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="68"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="4"/>
       <c r="G50" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>41</v>
@@ -3854,36 +3787,34 @@
       <c r="L50" s="8">
         <v>2</v>
       </c>
-      <c r="M50" s="78">
-        <f t="shared" si="2"/>
+      <c r="M50" s="70">
+        <v>20.268750000000001</v>
+      </c>
+      <c r="N50" s="71">
         <v>18.64725</v>
       </c>
-      <c r="N50" s="79">
-        <f t="shared" si="3"/>
-        <v>17.836500000000001</v>
-      </c>
-      <c r="O50" s="85">
+      <c r="O50" s="77">
         <v>16.215</v>
       </c>
-      <c r="P50" s="85">
+      <c r="P50" s="77">
         <v>16.215</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="68"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="4"/>
       <c r="G51" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="39" t="s">
         <v>64</v>
@@ -3894,36 +3825,34 @@
       <c r="L51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="78">
-        <f t="shared" si="2"/>
-        <v>38.570999999999998</v>
-      </c>
-      <c r="N51" s="79">
-        <f t="shared" si="3"/>
-        <v>36.894000000000005</v>
-      </c>
-      <c r="O51" s="84">
+      <c r="M51" s="70">
+        <v>37.893749999999997</v>
+      </c>
+      <c r="N51" s="71">
+        <v>34.862249999999996</v>
+      </c>
+      <c r="O51" s="76">
+        <v>30.314999999999998</v>
+      </c>
+      <c r="P51" s="76">
         <v>33.54</v>
       </c>
-      <c r="P51" s="84">
-        <v>33.54</v>
-      </c>
     </row>
     <row r="52" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="68"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="95"/>
       <c r="F52" s="4"/>
       <c r="G52" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>64</v>
@@ -3934,36 +3863,34 @@
       <c r="L52" s="8">
         <v>1</v>
       </c>
-      <c r="M52" s="78">
-        <f t="shared" si="2"/>
-        <v>48.460999999999999</v>
-      </c>
-      <c r="N52" s="79">
-        <f t="shared" si="3"/>
-        <v>46.354000000000006</v>
-      </c>
-      <c r="O52" s="85">
+      <c r="M52" s="70">
+        <v>47.568750000000001</v>
+      </c>
+      <c r="N52" s="71">
+        <v>43.763249999999999</v>
+      </c>
+      <c r="O52" s="77">
+        <v>38.055</v>
+      </c>
+      <c r="P52" s="77">
         <v>42.14</v>
       </c>
-      <c r="P52" s="85">
-        <v>42.14</v>
-      </c>
     </row>
     <row r="53" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="68"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="95"/>
       <c r="F53" s="4"/>
       <c r="G53" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53" s="39" t="s">
         <v>64</v>
@@ -3974,36 +3901,34 @@
       <c r="L53" s="8">
         <v>1</v>
       </c>
-      <c r="M53" s="78">
-        <f t="shared" si="2"/>
-        <v>30.658999999999999</v>
-      </c>
-      <c r="N53" s="79">
-        <f t="shared" si="3"/>
-        <v>29.326000000000004</v>
-      </c>
-      <c r="O53" s="84">
+      <c r="M53" s="70">
+        <v>30.1</v>
+      </c>
+      <c r="N53" s="71">
+        <v>27.692</v>
+      </c>
+      <c r="O53" s="76">
+        <v>24.080000000000002</v>
+      </c>
+      <c r="P53" s="76">
         <v>26.66</v>
       </c>
-      <c r="P53" s="84">
-        <v>26.66</v>
-      </c>
     </row>
     <row r="54" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="68"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
       <c r="F54" s="4"/>
       <c r="G54" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>64</v>
@@ -4014,36 +3939,34 @@
       <c r="L54" s="8">
         <v>2</v>
       </c>
-      <c r="M54" s="78">
-        <f t="shared" si="2"/>
-        <v>96.921999999999997</v>
-      </c>
-      <c r="N54" s="79">
-        <f t="shared" si="3"/>
-        <v>92.708000000000013</v>
-      </c>
-      <c r="O54" s="85">
+      <c r="M54" s="70">
+        <v>94.868749999999991</v>
+      </c>
+      <c r="N54" s="71">
+        <v>87.27924999999999</v>
+      </c>
+      <c r="O54" s="77">
+        <v>75.894999999999996</v>
+      </c>
+      <c r="P54" s="77">
         <v>84.28</v>
       </c>
-      <c r="P54" s="85">
-        <v>84.28</v>
-      </c>
     </row>
     <row r="55" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="68"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="95"/>
       <c r="F55" s="4"/>
       <c r="G55" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J55" s="39" t="s">
         <v>64</v>
@@ -4054,36 +3977,34 @@
       <c r="L55" s="8">
         <v>2</v>
       </c>
-      <c r="M55" s="78">
-        <f t="shared" si="2"/>
-        <v>57.361999999999988</v>
-      </c>
-      <c r="N55" s="79">
-        <f t="shared" si="3"/>
-        <v>54.868000000000002</v>
-      </c>
-      <c r="O55" s="84">
+      <c r="M55" s="70">
+        <v>56.4375</v>
+      </c>
+      <c r="N55" s="71">
+        <v>51.922499999999992</v>
+      </c>
+      <c r="O55" s="76">
+        <v>45.15</v>
+      </c>
+      <c r="P55" s="76">
         <v>49.879999999999995</v>
       </c>
-      <c r="P55" s="84">
-        <v>49.879999999999995</v>
-      </c>
     </row>
     <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="68"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
       <c r="F56" s="4"/>
       <c r="G56" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>64</v>
@@ -4094,39 +4015,37 @@
       <c r="L56" s="8">
         <v>2</v>
       </c>
-      <c r="M56" s="78">
-        <f t="shared" si="2"/>
-        <v>44.356649999999995</v>
-      </c>
-      <c r="N56" s="79">
-        <f t="shared" si="3"/>
-        <v>42.428100000000001</v>
-      </c>
-      <c r="O56" s="85">
+      <c r="M56" s="70">
+        <v>46.493749999999999</v>
+      </c>
+      <c r="N56" s="71">
+        <v>42.774249999999995</v>
+      </c>
+      <c r="O56" s="77">
+        <v>37.195</v>
+      </c>
+      <c r="P56" s="77">
         <v>38.570999999999998</v>
       </c>
-      <c r="P56" s="85">
-        <v>38.570999999999998</v>
-      </c>
     </row>
     <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="68"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="95"/>
       <c r="F57" s="4"/>
       <c r="G57" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>14</v>
@@ -4134,39 +4053,37 @@
       <c r="L57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="78">
-        <f t="shared" si="2"/>
+      <c r="M57" s="70">
+        <v>65.215625000000003</v>
+      </c>
+      <c r="N57" s="71">
         <v>59.998374999999996</v>
       </c>
-      <c r="N57" s="79">
-        <f t="shared" si="3"/>
-        <v>57.389750000000006</v>
-      </c>
-      <c r="O57" s="84">
+      <c r="O57" s="76">
         <v>52.172499999999999</v>
       </c>
-      <c r="P57" s="84">
+      <c r="P57" s="76">
         <v>52.172499999999999</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="68"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="95"/>
       <c r="F58" s="4"/>
       <c r="G58" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>18</v>
@@ -4174,39 +4091,37 @@
       <c r="L58" s="8">
         <v>1</v>
       </c>
-      <c r="M58" s="78">
-        <f t="shared" si="2"/>
+      <c r="M58" s="70">
+        <v>81.94874999999999</v>
+      </c>
+      <c r="N58" s="71">
         <v>75.392849999999996</v>
       </c>
-      <c r="N58" s="79">
-        <f t="shared" si="3"/>
-        <v>72.114900000000006</v>
-      </c>
-      <c r="O58" s="85">
+      <c r="O58" s="77">
         <v>65.558999999999997</v>
       </c>
-      <c r="P58" s="85">
+      <c r="P58" s="77">
         <v>65.558999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="68"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="95"/>
       <c r="F59" s="4"/>
       <c r="G59" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>18</v>
@@ -4214,39 +4129,37 @@
       <c r="L59" s="8">
         <v>1</v>
       </c>
-      <c r="M59" s="78">
-        <f t="shared" si="2"/>
+      <c r="M59" s="70">
+        <v>51.839375000000004</v>
+      </c>
+      <c r="N59" s="71">
         <v>47.692225000000001</v>
       </c>
-      <c r="N59" s="79">
-        <f t="shared" si="3"/>
-        <v>45.618650000000009</v>
-      </c>
-      <c r="O59" s="84">
+      <c r="O59" s="76">
         <v>41.471500000000006</v>
       </c>
-      <c r="P59" s="84">
+      <c r="P59" s="76">
         <v>41.471500000000006</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="68"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="4"/>
       <c r="G60" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>23</v>
@@ -4254,39 +4167,37 @@
       <c r="L60" s="8">
         <v>2</v>
       </c>
-      <c r="M60" s="78">
-        <f t="shared" si="2"/>
+      <c r="M60" s="70">
+        <v>163.87187499999999</v>
+      </c>
+      <c r="N60" s="71">
         <v>150.762125</v>
       </c>
-      <c r="N60" s="79">
-        <f t="shared" si="3"/>
-        <v>144.20725000000002</v>
-      </c>
-      <c r="O60" s="85">
+      <c r="O60" s="77">
         <v>131.0975</v>
       </c>
-      <c r="P60" s="85">
+      <c r="P60" s="77">
         <v>131.0975</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="68"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
       <c r="F61" s="4"/>
       <c r="G61" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>23</v>
@@ -4294,39 +4205,37 @@
       <c r="L61" s="8">
         <v>2</v>
       </c>
-      <c r="M61" s="78">
-        <f t="shared" si="2"/>
+      <c r="M61" s="70">
+        <v>96.990624999999994</v>
+      </c>
+      <c r="N61" s="71">
         <v>89.231375</v>
       </c>
-      <c r="N61" s="79">
-        <f t="shared" si="3"/>
-        <v>85.35175000000001</v>
-      </c>
-      <c r="O61" s="84">
+      <c r="O61" s="76">
         <v>77.592500000000001</v>
       </c>
-      <c r="P61" s="84">
+      <c r="P61" s="76">
         <v>77.592500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="75"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="68"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="95"/>
       <c r="F62" s="4"/>
       <c r="G62" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="J62" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>23</v>
@@ -4334,30 +4243,28 @@
       <c r="L62" s="8">
         <v>2</v>
       </c>
-      <c r="M62" s="78">
-        <f t="shared" si="2"/>
+      <c r="M62" s="70">
+        <v>75.158124999999984</v>
+      </c>
+      <c r="N62" s="71">
         <v>69.14547499999999</v>
       </c>
-      <c r="N62" s="79">
-        <f t="shared" si="3"/>
-        <v>66.139150000000001</v>
-      </c>
-      <c r="O62" s="85">
+      <c r="O62" s="77">
         <v>60.126499999999993</v>
       </c>
-      <c r="P62" s="85">
+      <c r="P62" s="77">
         <v>60.126499999999993</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="68"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="95"/>
       <c r="F63" s="4"/>
       <c r="G63" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>32</v>
@@ -4372,21 +4279,21 @@
       <c r="L63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M63" s="82"/>
-      <c r="N63" s="59"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="71"/>
       <c r="O63" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P63" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="68"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="95"/>
       <c r="F64" s="4"/>
       <c r="G64" s="7" t="s">
         <v>31</v>
@@ -4404,21 +4311,21 @@
       <c r="L64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M64" s="82"/>
-      <c r="N64" s="59"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="71"/>
       <c r="O64" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P64" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="68"/>
+      <c r="A65" s="94"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="95"/>
       <c r="F65" s="4"/>
       <c r="G65" s="7" t="s">
         <v>31</v>
@@ -4436,21 +4343,21 @@
       <c r="L65" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M65" s="82"/>
-      <c r="N65" s="59"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="71"/>
       <c r="O65" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P65" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="68"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
       <c r="F66" s="4"/>
       <c r="G66" s="7" t="s">
         <v>31</v>
@@ -4468,86 +4375,84 @@
       <c r="L66" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="82"/>
-      <c r="N66" s="59"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="71"/>
       <c r="O66" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P66" s="61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
+      <c r="A67" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
       <c r="E67" s="47"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="I67" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="90"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="82"/>
       <c r="O67" s="51"/>
       <c r="P67" s="51"/>
     </row>
     <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="67"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="94"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="86"/>
       <c r="G68" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H68" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I68" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K68" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="95">
-        <f>O68*1.15</f>
+      <c r="M68" s="87">
+        <v>41.28</v>
+      </c>
+      <c r="N68" s="88">
         <v>37.977599999999995</v>
       </c>
-      <c r="N68" s="96">
-        <f>O68*1.1</f>
-        <v>36.326400000000007</v>
-      </c>
-      <c r="O68" s="97">
+      <c r="O68" s="89">
         <v>33.024000000000001</v>
       </c>
-      <c r="P68" s="97">
+      <c r="P68" s="89">
         <v>33.024000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="67"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="94"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="86"/>
       <c r="G69" s="7" t="s">
         <v>10</v>
       </c>
@@ -4555,439 +4460,417 @@
         <v>43</v>
       </c>
       <c r="I69" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K69" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M69" s="95">
-        <f t="shared" ref="M69:M103" si="4">O69*1.15</f>
+      <c r="M69" s="87">
+        <v>22.144999999999996</v>
+      </c>
+      <c r="N69" s="88">
         <v>20.373399999999997</v>
       </c>
-      <c r="N69" s="96">
-        <f t="shared" ref="N69:N103" si="5">O69*1.1</f>
-        <v>19.4876</v>
-      </c>
-      <c r="O69" s="97">
+      <c r="O69" s="89">
         <v>17.715999999999998</v>
       </c>
-      <c r="P69" s="97">
+      <c r="P69" s="89">
         <v>17.715999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="67"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="94"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="86"/>
       <c r="G70" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H70" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I70" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K70" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L70" s="8">
         <v>1</v>
       </c>
-      <c r="M70" s="95">
-        <f t="shared" si="4"/>
+      <c r="M70" s="87">
+        <v>53.696249999999999</v>
+      </c>
+      <c r="N70" s="88">
         <v>49.400549999999996</v>
       </c>
-      <c r="N70" s="96">
-        <f t="shared" si="5"/>
-        <v>47.252700000000004</v>
-      </c>
-      <c r="O70" s="97">
+      <c r="O70" s="89">
         <v>42.957000000000001</v>
       </c>
-      <c r="P70" s="97">
+      <c r="P70" s="89">
         <v>42.957000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="67"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="94"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="86"/>
       <c r="G71" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H71" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K71" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L71" s="8">
         <v>1</v>
       </c>
-      <c r="M71" s="95">
-        <f t="shared" si="4"/>
+      <c r="M71" s="87">
+        <v>29.831250000000004</v>
+      </c>
+      <c r="N71" s="88">
         <v>27.444749999999999</v>
       </c>
-      <c r="N71" s="96">
-        <f t="shared" si="5"/>
-        <v>26.251500000000004</v>
-      </c>
-      <c r="O71" s="97">
+      <c r="O71" s="89">
         <v>23.865000000000002</v>
       </c>
-      <c r="P71" s="97">
+      <c r="P71" s="89">
         <v>23.865000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="67"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="94"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="86"/>
       <c r="G72" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H72" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K72" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L72" s="8">
         <v>1</v>
       </c>
-      <c r="M72" s="95">
-        <f t="shared" si="4"/>
+      <c r="M72" s="87">
+        <v>22.386874999999996</v>
+      </c>
+      <c r="N72" s="88">
         <v>20.595924999999998</v>
       </c>
-      <c r="N72" s="96">
-        <f t="shared" si="5"/>
-        <v>19.70045</v>
-      </c>
-      <c r="O72" s="97">
+      <c r="O72" s="89">
         <v>17.909499999999998</v>
       </c>
-      <c r="P72" s="97">
+      <c r="P72" s="89">
         <v>17.909499999999998</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="67"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="94"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="86"/>
       <c r="G73" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H73" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K73" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L73" s="8">
         <v>2</v>
       </c>
-      <c r="M73" s="95">
-        <f t="shared" si="4"/>
+      <c r="M73" s="87">
+        <v>107.3925</v>
+      </c>
+      <c r="N73" s="88">
         <v>98.801099999999991</v>
       </c>
-      <c r="N73" s="96">
-        <f t="shared" si="5"/>
-        <v>94.505400000000009</v>
-      </c>
-      <c r="O73" s="97">
+      <c r="O73" s="89">
         <v>85.914000000000001</v>
       </c>
-      <c r="P73" s="97">
+      <c r="P73" s="89">
         <v>85.914000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="67"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="94"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="86"/>
       <c r="G74" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H74" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K74" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L74" s="8">
         <v>2</v>
       </c>
-      <c r="M74" s="95">
-        <f t="shared" si="4"/>
+      <c r="M74" s="87">
+        <v>53.696249999999999</v>
+      </c>
+      <c r="N74" s="88">
         <v>49.400549999999996</v>
       </c>
-      <c r="N74" s="96">
-        <f t="shared" si="5"/>
-        <v>47.252700000000004</v>
-      </c>
-      <c r="O74" s="97">
+      <c r="O74" s="89">
         <v>42.957000000000001</v>
       </c>
-      <c r="P74" s="97">
+      <c r="P74" s="89">
         <v>42.957000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="67"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="94"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I75" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J75" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K75" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L75" s="8">
         <v>2</v>
       </c>
-      <c r="M75" s="95">
-        <f t="shared" si="4"/>
+      <c r="M75" s="87">
+        <v>40.285625000000003</v>
+      </c>
+      <c r="N75" s="88">
         <v>37.062775000000002</v>
       </c>
-      <c r="N75" s="96">
-        <f t="shared" si="5"/>
-        <v>35.451350000000005</v>
-      </c>
-      <c r="O75" s="97">
+      <c r="O75" s="89">
         <v>32.228500000000004</v>
       </c>
-      <c r="P75" s="97">
+      <c r="P75" s="89">
         <v>32.228500000000004</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="67"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="94"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="86"/>
       <c r="G76" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I76" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K76" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J76" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K76" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="L76" s="8">
         <v>2</v>
       </c>
-      <c r="M76" s="95">
-        <f t="shared" si="4"/>
+      <c r="M76" s="87">
+        <v>29.831250000000004</v>
+      </c>
+      <c r="N76" s="88">
         <v>27.444749999999999</v>
       </c>
-      <c r="N76" s="96">
-        <f t="shared" si="5"/>
-        <v>26.251500000000004</v>
-      </c>
-      <c r="O76" s="97">
+      <c r="O76" s="89">
         <v>23.865000000000002</v>
       </c>
-      <c r="P76" s="97">
+      <c r="P76" s="89">
         <v>23.865000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="67"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="94"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="86"/>
       <c r="G77" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H77" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J77" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K77" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M77" s="95">
-        <f t="shared" si="4"/>
+      <c r="M77" s="87">
+        <v>70.238124999999997</v>
+      </c>
+      <c r="N77" s="88">
         <v>64.619074999999995</v>
       </c>
-      <c r="N77" s="96">
-        <f t="shared" si="5"/>
-        <v>61.809550000000009</v>
-      </c>
-      <c r="O77" s="97">
+      <c r="O77" s="89">
         <v>56.1905</v>
       </c>
-      <c r="P77" s="97">
+      <c r="P77" s="89">
         <v>56.1905</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="67"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="94"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="86"/>
       <c r="G78" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H78" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K78" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="95">
-        <f t="shared" si="4"/>
+      <c r="M78" s="87">
+        <v>37.668749999999996</v>
+      </c>
+      <c r="N78" s="88">
         <v>34.655249999999995</v>
       </c>
-      <c r="N78" s="96">
-        <f t="shared" si="5"/>
-        <v>33.148499999999999</v>
-      </c>
-      <c r="O78" s="97">
+      <c r="O78" s="89">
         <v>30.134999999999998</v>
       </c>
-      <c r="P78" s="97">
+      <c r="P78" s="89">
         <v>30.134999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="67"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="94"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="86"/>
       <c r="G79" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H79" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I79" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J79" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K79" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L79" s="8">
         <v>1</v>
       </c>
-      <c r="M79" s="95">
-        <f t="shared" si="4"/>
+      <c r="M79" s="87">
+        <v>91.327500000000001</v>
+      </c>
+      <c r="N79" s="88">
         <v>84.021299999999997</v>
       </c>
-      <c r="N79" s="96">
-        <f t="shared" si="5"/>
-        <v>80.368200000000002</v>
-      </c>
-      <c r="O79" s="97">
+      <c r="O79" s="89">
         <v>73.061999999999998</v>
       </c>
-      <c r="P79" s="97">
+      <c r="P79" s="89">
         <v>73.061999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="67"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="94"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="7" t="s">
         <v>10</v>
       </c>
@@ -4995,439 +4878,417 @@
         <v>43</v>
       </c>
       <c r="I80" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K80" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L80" s="8">
         <v>1</v>
       </c>
-      <c r="M80" s="95">
-        <f t="shared" si="4"/>
+      <c r="M80" s="87">
+        <v>50.737499999999997</v>
+      </c>
+      <c r="N80" s="88">
         <v>46.678499999999993</v>
       </c>
-      <c r="N80" s="96">
-        <f t="shared" si="5"/>
-        <v>44.649000000000001</v>
-      </c>
-      <c r="O80" s="97">
+      <c r="O80" s="89">
         <v>40.589999999999996</v>
       </c>
-      <c r="P80" s="97">
+      <c r="P80" s="89">
         <v>40.589999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="67"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="94"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="86"/>
       <c r="G81" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I81" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K81" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L81" s="8">
         <v>1</v>
       </c>
-      <c r="M81" s="95">
-        <f t="shared" si="4"/>
+      <c r="M81" s="87">
+        <v>38.053125000000001</v>
+      </c>
+      <c r="N81" s="88">
         <v>35.008875000000003</v>
       </c>
-      <c r="N81" s="96">
-        <f t="shared" si="5"/>
-        <v>33.486750000000008</v>
-      </c>
-      <c r="O81" s="97">
+      <c r="O81" s="89">
         <v>30.442500000000003</v>
       </c>
-      <c r="P81" s="97">
+      <c r="P81" s="89">
         <v>30.442500000000003</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="67"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="94"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="86"/>
       <c r="G82" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H82" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J82" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K82" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L82" s="8">
         <v>2</v>
       </c>
-      <c r="M82" s="95">
-        <f t="shared" si="4"/>
+      <c r="M82" s="87">
+        <v>182.655</v>
+      </c>
+      <c r="N82" s="88">
         <v>168.04259999999999</v>
       </c>
-      <c r="N82" s="96">
-        <f t="shared" si="5"/>
-        <v>160.7364</v>
-      </c>
-      <c r="O82" s="97">
+      <c r="O82" s="89">
         <v>146.124</v>
       </c>
-      <c r="P82" s="97">
+      <c r="P82" s="89">
         <v>146.124</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="67"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="94"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="86"/>
       <c r="G83" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H83" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J83" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K83" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L83" s="8">
         <v>2</v>
       </c>
-      <c r="M83" s="95">
-        <f t="shared" si="4"/>
+      <c r="M83" s="87">
+        <v>91.327500000000001</v>
+      </c>
+      <c r="N83" s="88">
         <v>84.021299999999997</v>
       </c>
-      <c r="N83" s="96">
-        <f t="shared" si="5"/>
-        <v>80.368200000000002</v>
-      </c>
-      <c r="O83" s="97">
+      <c r="O83" s="89">
         <v>73.061999999999998</v>
       </c>
-      <c r="P83" s="97">
+      <c r="P83" s="89">
         <v>73.061999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="67"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="94"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="86"/>
       <c r="G84" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I84" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J84" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K84" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L84" s="8">
         <v>2</v>
       </c>
-      <c r="M84" s="95">
-        <f t="shared" si="4"/>
+      <c r="M84" s="87">
+        <v>68.495625000000004</v>
+      </c>
+      <c r="N84" s="88">
         <v>63.015974999999997</v>
       </c>
-      <c r="N84" s="96">
-        <f t="shared" si="5"/>
-        <v>60.276150000000008</v>
-      </c>
-      <c r="O84" s="97">
+      <c r="O84" s="89">
         <v>54.796500000000002</v>
       </c>
-      <c r="P84" s="97">
+      <c r="P84" s="89">
         <v>54.796500000000002</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="67"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="94"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="86"/>
       <c r="G85" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I85" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K85" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="K85" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="L85" s="8">
         <v>2</v>
       </c>
-      <c r="M85" s="95">
-        <f t="shared" si="4"/>
+      <c r="M85" s="87">
+        <v>50.737499999999997</v>
+      </c>
+      <c r="N85" s="88">
         <v>46.678499999999993</v>
       </c>
-      <c r="N85" s="96">
-        <f t="shared" si="5"/>
-        <v>44.649000000000001</v>
-      </c>
-      <c r="O85" s="97">
+      <c r="O85" s="89">
         <v>40.589999999999996</v>
       </c>
-      <c r="P85" s="97">
+      <c r="P85" s="89">
         <v>40.589999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="67"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="94"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="86"/>
       <c r="G86" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H86" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J86" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K86" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M86" s="95">
-        <f t="shared" si="4"/>
+      <c r="M86" s="87">
+        <v>109.95687500000001</v>
+      </c>
+      <c r="N86" s="88">
         <v>101.160325</v>
       </c>
-      <c r="N86" s="96">
-        <f t="shared" si="5"/>
-        <v>96.762050000000016</v>
-      </c>
-      <c r="O86" s="97">
+      <c r="O86" s="89">
         <v>87.965500000000006</v>
       </c>
-      <c r="P86" s="97">
+      <c r="P86" s="89">
         <v>87.965500000000006</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="67"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="94"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="86"/>
       <c r="G87" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H87" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I87" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J87" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K87" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="95">
-        <f t="shared" si="4"/>
+      <c r="M87" s="87">
+        <v>58.963125000000005</v>
+      </c>
+      <c r="N87" s="88">
         <v>54.246074999999998</v>
       </c>
-      <c r="N87" s="96">
-        <f t="shared" si="5"/>
-        <v>51.887550000000012</v>
-      </c>
-      <c r="O87" s="97">
+      <c r="O87" s="89">
         <v>47.170500000000004</v>
       </c>
-      <c r="P87" s="97">
+      <c r="P87" s="89">
         <v>47.170500000000004</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="67"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="94"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="86"/>
       <c r="G88" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H88" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J88" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K88" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L88" s="8">
         <v>1</v>
       </c>
-      <c r="M88" s="95">
-        <f t="shared" si="4"/>
+      <c r="M88" s="87">
+        <v>142.98750000000001</v>
+      </c>
+      <c r="N88" s="88">
         <v>131.54849999999999</v>
       </c>
-      <c r="N88" s="96">
-        <f t="shared" si="5"/>
-        <v>125.82900000000001</v>
-      </c>
-      <c r="O88" s="97">
+      <c r="O88" s="89">
         <v>114.39</v>
       </c>
-      <c r="P88" s="97">
+      <c r="P88" s="89">
         <v>114.39</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="67"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="94"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="86"/>
       <c r="G89" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H89" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I89" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J89" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K89" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L89" s="8">
         <v>1</v>
       </c>
-      <c r="M89" s="95">
-        <f t="shared" si="4"/>
+      <c r="M89" s="87">
+        <v>79.4375</v>
+      </c>
+      <c r="N89" s="88">
         <v>73.082499999999996</v>
       </c>
-      <c r="N89" s="96">
-        <f t="shared" si="5"/>
-        <v>69.905000000000015</v>
-      </c>
-      <c r="O89" s="97">
+      <c r="O89" s="89">
         <v>63.550000000000004</v>
       </c>
-      <c r="P89" s="97">
+      <c r="P89" s="89">
         <v>63.550000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="67"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="94"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="86"/>
       <c r="G90" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J90" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K90" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L90" s="8">
         <v>1</v>
       </c>
-      <c r="M90" s="95">
-        <f t="shared" si="4"/>
+      <c r="M90" s="87">
+        <v>59.578125</v>
+      </c>
+      <c r="N90" s="88">
         <v>54.811875000000001</v>
       </c>
-      <c r="N90" s="96">
-        <f t="shared" si="5"/>
-        <v>52.428750000000008</v>
-      </c>
-      <c r="O90" s="97">
+      <c r="O90" s="89">
         <v>47.662500000000001</v>
       </c>
-      <c r="P90" s="97">
+      <c r="P90" s="89">
         <v>47.662500000000001</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="67"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="94"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="86"/>
       <c r="G91" s="7" t="s">
         <v>10</v>
       </c>
@@ -5435,509 +5296,483 @@
         <v>11</v>
       </c>
       <c r="I91" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J91" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K91" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L91" s="8">
         <v>2</v>
       </c>
-      <c r="M91" s="95">
-        <f t="shared" si="4"/>
+      <c r="M91" s="87">
+        <v>285.97500000000002</v>
+      </c>
+      <c r="N91" s="88">
         <v>263.09699999999998</v>
       </c>
-      <c r="N91" s="96">
-        <f t="shared" si="5"/>
-        <v>251.65800000000002</v>
-      </c>
-      <c r="O91" s="97">
+      <c r="O91" s="89">
         <v>228.78</v>
       </c>
-      <c r="P91" s="97">
+      <c r="P91" s="89">
         <v>228.78</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="67"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="94"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="86"/>
       <c r="G92" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H92" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I92" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J92" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K92" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L92" s="8">
         <v>2</v>
       </c>
-      <c r="M92" s="95">
-        <f t="shared" si="4"/>
+      <c r="M92" s="87">
+        <v>142.98750000000001</v>
+      </c>
+      <c r="N92" s="88">
         <v>131.54849999999999</v>
       </c>
-      <c r="N92" s="96">
-        <f t="shared" si="5"/>
-        <v>125.82900000000001</v>
-      </c>
-      <c r="O92" s="97">
+      <c r="O92" s="89">
         <v>114.39</v>
       </c>
-      <c r="P92" s="97">
+      <c r="P92" s="89">
         <v>114.39</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="67"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="94"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="86"/>
       <c r="G93" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J93" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K93" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L93" s="8">
         <v>2</v>
       </c>
-      <c r="M93" s="95">
-        <f t="shared" si="4"/>
+      <c r="M93" s="87">
+        <v>107.24062499999999</v>
+      </c>
+      <c r="N93" s="88">
         <v>98.661374999999978</v>
       </c>
-      <c r="N93" s="96">
-        <f t="shared" si="5"/>
-        <v>94.371749999999992</v>
-      </c>
-      <c r="O93" s="97">
+      <c r="O93" s="89">
         <v>85.79249999999999</v>
       </c>
-      <c r="P93" s="97">
+      <c r="P93" s="89">
         <v>85.79249999999999</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="67"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="94"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="86"/>
       <c r="G94" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I94" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J94" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J94" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="K94" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="L94" s="8">
         <v>2</v>
       </c>
-      <c r="M94" s="95">
-        <f t="shared" si="4"/>
+      <c r="M94" s="87">
+        <v>79.4375</v>
+      </c>
+      <c r="N94" s="88">
         <v>73.082499999999996</v>
       </c>
-      <c r="N94" s="96">
-        <f t="shared" si="5"/>
-        <v>69.905000000000015</v>
-      </c>
-      <c r="O94" s="97">
+      <c r="O94" s="89">
         <v>63.550000000000004</v>
       </c>
-      <c r="P94" s="97">
+      <c r="P94" s="89">
         <v>63.550000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="67"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="94"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H95" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J95" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K95" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="95">
-        <f t="shared" si="4"/>
+      <c r="M95" s="87">
+        <v>157.46562499999999</v>
+      </c>
+      <c r="N95" s="88">
         <v>144.86837499999999</v>
       </c>
-      <c r="N95" s="96">
-        <f t="shared" si="5"/>
-        <v>138.56975</v>
-      </c>
-      <c r="O95" s="97">
+      <c r="O95" s="89">
         <v>125.9725</v>
       </c>
-      <c r="P95" s="97">
+      <c r="P95" s="89">
         <v>125.9725</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="67"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="93"/>
-      <c r="F96" s="94"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="86"/>
       <c r="G96" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H96" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I96" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J96" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K96" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="95">
-        <f t="shared" si="4"/>
+      <c r="M96" s="87">
+        <v>84.434375000000003</v>
+      </c>
+      <c r="N96" s="88">
         <v>77.679624999999987</v>
       </c>
-      <c r="N96" s="96">
-        <f t="shared" si="5"/>
-        <v>74.302250000000001</v>
-      </c>
-      <c r="O96" s="97">
+      <c r="O96" s="89">
         <v>67.547499999999999</v>
       </c>
-      <c r="P96" s="97">
+      <c r="P96" s="89">
         <v>67.547499999999999</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="67"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="94"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="86"/>
       <c r="G97" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H97" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J97" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K97" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L97" s="8">
         <v>1</v>
       </c>
-      <c r="M97" s="95">
-        <f t="shared" si="4"/>
+      <c r="M97" s="87">
+        <v>204.79500000000002</v>
+      </c>
+      <c r="N97" s="88">
         <v>188.41139999999999</v>
       </c>
-      <c r="N97" s="96">
-        <f t="shared" si="5"/>
-        <v>180.21960000000004</v>
-      </c>
-      <c r="O97" s="97">
+      <c r="O97" s="89">
         <v>163.83600000000001</v>
       </c>
-      <c r="P97" s="97">
+      <c r="P97" s="89">
         <v>163.83600000000001</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="67"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="93"/>
-      <c r="F98" s="94"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="86"/>
       <c r="G98" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H98" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J98" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K98" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L98" s="8">
         <v>1</v>
       </c>
-      <c r="M98" s="95">
-        <f t="shared" si="4"/>
+      <c r="M98" s="87">
+        <v>113.77500000000001</v>
+      </c>
+      <c r="N98" s="88">
         <v>104.673</v>
       </c>
-      <c r="N98" s="96">
-        <f t="shared" si="5"/>
-        <v>100.12200000000001</v>
-      </c>
-      <c r="O98" s="97">
+      <c r="O98" s="89">
         <v>91.02000000000001</v>
       </c>
-      <c r="P98" s="97">
+      <c r="P98" s="89">
         <v>91.02000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="67"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="94"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="86"/>
       <c r="G99" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J99" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K99" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L99" s="8">
         <v>1</v>
       </c>
-      <c r="M99" s="95">
-        <f t="shared" si="4"/>
+      <c r="M99" s="87">
+        <v>85.331249999999997</v>
+      </c>
+      <c r="N99" s="88">
         <v>78.504750000000001</v>
       </c>
-      <c r="N99" s="96">
-        <f t="shared" si="5"/>
-        <v>75.091500000000011</v>
-      </c>
-      <c r="O99" s="97">
+      <c r="O99" s="89">
         <v>68.265000000000001</v>
       </c>
-      <c r="P99" s="97">
+      <c r="P99" s="89">
         <v>68.265000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="67"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="94"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="86"/>
       <c r="G100" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H100" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J100" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K100" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L100" s="8">
         <v>2</v>
       </c>
-      <c r="M100" s="95">
-        <f t="shared" si="4"/>
+      <c r="M100" s="87">
+        <v>409.59000000000003</v>
+      </c>
+      <c r="N100" s="88">
         <v>376.82279999999997</v>
       </c>
-      <c r="N100" s="96">
-        <f t="shared" si="5"/>
-        <v>360.43920000000008</v>
-      </c>
-      <c r="O100" s="97">
+      <c r="O100" s="89">
         <v>327.67200000000003</v>
       </c>
-      <c r="P100" s="97">
+      <c r="P100" s="89">
         <v>327.67200000000003</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="67"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="94"/>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="86"/>
       <c r="G101" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H101" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J101" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K101" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L101" s="8">
         <v>2</v>
       </c>
-      <c r="M101" s="95">
-        <f t="shared" si="4"/>
+      <c r="M101" s="87">
+        <v>204.79500000000002</v>
+      </c>
+      <c r="N101" s="88">
         <v>188.41139999999999</v>
       </c>
-      <c r="N101" s="96">
-        <f t="shared" si="5"/>
-        <v>180.21960000000004</v>
-      </c>
-      <c r="O101" s="97">
+      <c r="O101" s="89">
         <v>163.83600000000001</v>
       </c>
-      <c r="P101" s="97">
+      <c r="P101" s="89">
         <v>163.83600000000001</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="67"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="94"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="86"/>
       <c r="G102" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H102" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I102" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J102" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K102" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L102" s="8">
         <v>2</v>
       </c>
-      <c r="M102" s="95">
-        <f t="shared" si="4"/>
+      <c r="M102" s="87">
+        <v>153.59625</v>
+      </c>
+      <c r="N102" s="88">
         <v>141.30855</v>
       </c>
-      <c r="N102" s="96">
-        <f t="shared" si="5"/>
-        <v>135.16470000000001</v>
-      </c>
-      <c r="O102" s="97">
+      <c r="O102" s="89">
         <v>122.877</v>
       </c>
-      <c r="P102" s="97">
+      <c r="P102" s="89">
         <v>122.877</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="64"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="94"/>
+      <c r="B103" s="91"/>
+      <c r="C103" s="91"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="86"/>
       <c r="G103" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H103" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I103" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J103" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="K103" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J103" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K103" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="L103" s="8">
         <v>2</v>
       </c>
-      <c r="M103" s="95">
-        <f t="shared" si="4"/>
+      <c r="M103" s="87">
+        <v>113.77500000000001</v>
+      </c>
+      <c r="N103" s="88">
         <v>104.673</v>
       </c>
-      <c r="N103" s="96">
-        <f t="shared" si="5"/>
-        <v>100.12200000000001</v>
-      </c>
-      <c r="O103" s="97">
+      <c r="O103" s="89">
         <v>91.02000000000001</v>
       </c>
-      <c r="P103" s="97">
+      <c r="P103" s="89">
         <v>91.02000000000001</v>
       </c>
     </row>
@@ -5958,8 +5793,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:D42"/>
-    <mergeCell ref="E16:E42"/>
     <mergeCell ref="A45:D66"/>
     <mergeCell ref="E45:E66"/>
     <mergeCell ref="A67:D67"/>
@@ -5967,12 +5800,14 @@
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D42"/>
+    <mergeCell ref="E16:E42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1" display="https://metallsetka.com.ua/"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6103,7 +5938,7 @@
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
@@ -6248,12 +6083,12 @@
     </row>
     <row r="72" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
       <c r="I72" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J72" s="52"/>
       <c r="K72" s="52"/>
@@ -6267,10 +6102,10 @@
         <v>11</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K73" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M73" s="49">
         <f>N73*1.15</f>
@@ -6283,13 +6118,13 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E74" s="50"/>
       <c r="H74" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I74" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K74" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M74" s="49">
         <f t="shared" ref="M74:M137" si="0">N74*1.15</f>
@@ -6307,10 +6142,10 @@
         <v>38</v>
       </c>
       <c r="I75" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K75" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M75" s="49">
         <f t="shared" si="0"/>
@@ -6325,10 +6160,10 @@
         <v>43</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K76" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M76" s="49">
         <f t="shared" si="0"/>
@@ -6343,10 +6178,10 @@
         <v>11</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K77" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M77" s="49">
         <f>N77*1.15</f>
@@ -6358,13 +6193,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H78" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K78" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M78" s="49">
         <f t="shared" si="0"/>
@@ -6379,10 +6214,10 @@
         <v>38</v>
       </c>
       <c r="I79" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K79" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M79" s="49">
         <f t="shared" si="0"/>
@@ -6397,10 +6232,10 @@
         <v>43</v>
       </c>
       <c r="I80" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K80" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M80" s="49">
         <f t="shared" si="0"/>
@@ -6412,13 +6247,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H81" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I81" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K81" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M81" s="49">
         <f t="shared" si="0"/>
@@ -6430,13 +6265,13 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H82" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K82" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M82" s="49">
         <f t="shared" si="0"/>
@@ -6451,10 +6286,10 @@
         <v>11</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K83" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M83" s="49">
         <f t="shared" si="0"/>
@@ -6466,13 +6301,13 @@
     </row>
     <row r="84" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H84" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I84" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K84" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M84" s="49">
         <f t="shared" si="0"/>
@@ -6487,10 +6322,10 @@
         <v>38</v>
       </c>
       <c r="I85" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K85" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M85" s="49">
         <f t="shared" si="0"/>
@@ -6505,10 +6340,10 @@
         <v>43</v>
       </c>
       <c r="I86" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K86" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M86" s="49">
         <f t="shared" si="0"/>
@@ -6520,13 +6355,13 @@
     </row>
     <row r="87" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H87" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I87" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K87" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M87" s="49">
         <f t="shared" si="0"/>
@@ -6538,13 +6373,13 @@
     </row>
     <row r="88" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H88" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I88" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K88" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M88" s="49">
         <f t="shared" si="0"/>
@@ -6556,16 +6391,16 @@
     </row>
     <row r="89" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H89" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I89" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J89" t="s">
         <v>13</v>
       </c>
       <c r="K89" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M89" s="49">
         <f t="shared" si="0"/>
@@ -6577,13 +6412,13 @@
     </row>
     <row r="90" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H90" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I90" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="K90" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="K90" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M90" s="49">
         <f t="shared" si="0"/>
@@ -6598,13 +6433,13 @@
         <v>11</v>
       </c>
       <c r="I91" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K91" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M91" s="49">
         <f t="shared" si="0"/>
@@ -6616,16 +6451,16 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H92" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I92" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K92" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M92" s="49">
         <f t="shared" si="0"/>
@@ -6640,13 +6475,13 @@
         <v>38</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K93" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M93" s="49">
         <f t="shared" si="0"/>
@@ -6665,13 +6500,13 @@
         <v>43</v>
       </c>
       <c r="I94" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J94" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K94" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M94" s="49">
         <f t="shared" si="0"/>
@@ -6690,13 +6525,13 @@
         <v>11</v>
       </c>
       <c r="I95" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K95" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M95" s="49">
         <f t="shared" si="0"/>
@@ -6712,16 +6547,16 @@
       <c r="C96" s="50"/>
       <c r="D96" s="50"/>
       <c r="H96" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I96" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K96" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M96" s="49">
         <f t="shared" si="0"/>
@@ -6741,13 +6576,13 @@
         <v>38</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K97" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M97" s="49">
         <f t="shared" si="0"/>
@@ -6767,13 +6602,13 @@
         <v>43</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K98" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M98" s="49">
         <f t="shared" si="0"/>
@@ -6790,16 +6625,16 @@
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
       <c r="H99" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K99" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M99" s="49">
         <f t="shared" si="0"/>
@@ -6816,16 +6651,16 @@
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
       <c r="H100" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K100" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M100" s="49">
         <f t="shared" si="0"/>
@@ -6845,13 +6680,13 @@
         <v>11</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K101" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M101" s="49">
         <f t="shared" si="0"/>
@@ -6868,16 +6703,16 @@
       <c r="D102" s="50"/>
       <c r="E102" s="50"/>
       <c r="H102" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I102" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K102" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M102" s="49">
         <f t="shared" si="0"/>
@@ -6897,13 +6732,13 @@
         <v>38</v>
       </c>
       <c r="I103" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K103" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M103" s="49">
         <f t="shared" si="0"/>
@@ -6923,13 +6758,13 @@
         <v>43</v>
       </c>
       <c r="I104" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K104" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M104" s="49">
         <f t="shared" si="0"/>
@@ -6948,16 +6783,16 @@
         <v>3</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K105" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M105" s="49">
         <f t="shared" si="0"/>
@@ -6973,16 +6808,16 @@
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="H106" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K106" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M106" s="49">
         <f t="shared" si="0"/>
@@ -6998,16 +6833,16 @@
       <c r="C107" s="50"/>
       <c r="D107" s="50"/>
       <c r="H107" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I107" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K107" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M107" s="49">
         <f t="shared" si="0"/>
@@ -7023,16 +6858,16 @@
       <c r="C108" s="50"/>
       <c r="D108" s="50"/>
       <c r="H108" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I108" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J108" t="s">
+        <v>101</v>
+      </c>
+      <c r="K108" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K108" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M108" s="49">
         <f>N108*1.15</f>
@@ -7051,13 +6886,13 @@
         <v>11</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K109" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M109" s="49">
         <f t="shared" si="0"/>
@@ -7073,16 +6908,16 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
       <c r="H110" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I110" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K110" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M110" s="49">
         <f t="shared" si="0"/>
@@ -7101,13 +6936,13 @@
         <v>38</v>
       </c>
       <c r="I111" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K111" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M111" s="49">
         <f t="shared" si="0"/>
@@ -7126,13 +6961,13 @@
         <v>43</v>
       </c>
       <c r="I112" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K112" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M112" s="49">
         <f>N112*1.15</f>
@@ -7144,19 +6979,19 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H113" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I113" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K113" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M113" s="49">
         <f t="shared" si="0"/>
@@ -7168,16 +7003,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H114" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I114" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J114" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K114" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M114" s="49">
         <f t="shared" si="0"/>
@@ -7192,13 +7027,13 @@
         <v>38</v>
       </c>
       <c r="I115" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K115" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M115" s="49">
         <f t="shared" si="0"/>
@@ -7213,13 +7048,13 @@
         <v>43</v>
       </c>
       <c r="I116" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J116" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K116" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M116" s="49">
         <f t="shared" si="0"/>
@@ -7231,16 +7066,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H117" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I117" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K117" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M117" s="49">
         <f t="shared" si="0"/>
@@ -7252,16 +7087,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H118" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I118" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K118" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M118" s="49">
         <f t="shared" si="0"/>
@@ -7276,13 +7111,13 @@
         <v>11</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K119" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M119" s="49">
         <f t="shared" si="0"/>
@@ -7294,16 +7129,16 @@
     </row>
     <row r="120" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H120" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I120" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K120" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M120" s="49">
         <f t="shared" si="0"/>
@@ -7318,13 +7153,13 @@
         <v>38</v>
       </c>
       <c r="I121" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K121" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M121" s="49">
         <f t="shared" si="0"/>
@@ -7339,13 +7174,13 @@
         <v>43</v>
       </c>
       <c r="I122" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J122" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K122" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M122" s="49">
         <f t="shared" si="0"/>
@@ -7357,16 +7192,16 @@
     </row>
     <row r="123" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H123" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I123" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J123" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K123" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M123" s="49">
         <f t="shared" si="0"/>
@@ -7378,16 +7213,16 @@
     </row>
     <row r="124" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H124" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I124" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J124" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K124" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M124" s="49">
         <f>N124*1.15</f>
@@ -7399,16 +7234,16 @@
     </row>
     <row r="125" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H125" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I125" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J125" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K125" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M125" s="49">
         <f t="shared" si="0"/>
@@ -7420,16 +7255,16 @@
     </row>
     <row r="126" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H126" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I126" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J126" t="s">
+        <v>65</v>
+      </c>
+      <c r="K126" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J126" t="s">
-        <v>68</v>
-      </c>
-      <c r="K126" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M126" s="49">
         <f t="shared" si="0"/>
@@ -7445,13 +7280,13 @@
         <v>11</v>
       </c>
       <c r="I127" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J127" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K127" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M127" s="49">
         <f t="shared" si="0"/>
@@ -7464,16 +7299,16 @@
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E128" s="50"/>
       <c r="H128" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I128" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J128" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K128" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M128" s="49">
         <f>N128*1.15</f>
@@ -7489,13 +7324,13 @@
         <v>38</v>
       </c>
       <c r="I129" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J129" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K129" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M129" s="49">
         <f t="shared" si="0"/>
@@ -7511,13 +7346,13 @@
         <v>43</v>
       </c>
       <c r="I130" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J130" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K130" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M130" s="49">
         <f t="shared" si="0"/>
@@ -7533,13 +7368,13 @@
         <v>11</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J131" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K131" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M131" s="49">
         <f t="shared" si="0"/>
@@ -7554,16 +7389,16 @@
         <v>3</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J132" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K132" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M132" s="49">
         <f t="shared" si="0"/>
@@ -7578,13 +7413,13 @@
         <v>38</v>
       </c>
       <c r="I133" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J133" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K133" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M133" s="49">
         <f t="shared" si="0"/>
@@ -7599,13 +7434,13 @@
         <v>43</v>
       </c>
       <c r="I134" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J134" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K134" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M134" s="49">
         <f t="shared" si="0"/>
@@ -7621,16 +7456,16 @@
       <c r="C135" s="50"/>
       <c r="D135" s="50"/>
       <c r="H135" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I135" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J135" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K135" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M135" s="49">
         <f t="shared" si="0"/>
@@ -7646,16 +7481,16 @@
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
       <c r="H136" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I136" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J136" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K136" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M136" s="49">
         <f t="shared" si="0"/>
@@ -7674,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="I137" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J137" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K137" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M137" s="49">
         <f t="shared" si="0"/>
@@ -7696,16 +7531,16 @@
       <c r="C138" s="50"/>
       <c r="D138" s="50"/>
       <c r="H138" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I138" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J138" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K138" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M138" s="49">
         <f t="shared" ref="M138:M141" si="1">N138*1.15</f>
@@ -7724,13 +7559,13 @@
         <v>38</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J139" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K139" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M139" s="49">
         <f t="shared" si="1"/>
@@ -7749,13 +7584,13 @@
         <v>43</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J140" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K140" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M140" s="49">
         <f t="shared" si="1"/>
@@ -7771,16 +7606,16 @@
       <c r="C141" s="50"/>
       <c r="D141" s="50"/>
       <c r="H141" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I141" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J141" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K141" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M141" s="49">
         <f t="shared" si="1"/>
@@ -7796,16 +7631,16 @@
       <c r="C142" s="50"/>
       <c r="D142" s="50"/>
       <c r="H142" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J142" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K142" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M142" s="49">
         <f>N142*1.15</f>
@@ -7817,19 +7652,19 @@
     </row>
     <row r="143" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J143" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K143" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M143" s="49">
         <f t="shared" ref="M143:M157" si="2">N143*1.15</f>
@@ -7841,16 +7676,16 @@
     </row>
     <row r="144" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H144" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I144" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J144" t="s">
+        <v>66</v>
+      </c>
+      <c r="K144" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J144" t="s">
-        <v>69</v>
-      </c>
-      <c r="K144" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M144" s="49">
         <f t="shared" si="2"/>
@@ -7865,13 +7700,13 @@
         <v>11</v>
       </c>
       <c r="I145" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J145" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K145" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M145" s="49">
         <f t="shared" si="2"/>
@@ -7883,16 +7718,16 @@
     </row>
     <row r="146" spans="5:14" x14ac:dyDescent="0.2">
       <c r="H146" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I146" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J146" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K146" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M146" s="49">
         <f>N146*1.15</f>
@@ -7907,13 +7742,13 @@
         <v>38</v>
       </c>
       <c r="I147" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J147" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K147" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M147" s="49">
         <f t="shared" si="2"/>
@@ -7928,13 +7763,13 @@
         <v>43</v>
       </c>
       <c r="I148" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J148" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K148" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M148" s="49">
         <f t="shared" si="2"/>
@@ -7949,13 +7784,13 @@
         <v>11</v>
       </c>
       <c r="I149" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J149" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K149" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M149" s="49">
         <f t="shared" si="2"/>
@@ -7967,16 +7802,16 @@
     </row>
     <row r="150" spans="5:14" x14ac:dyDescent="0.2">
       <c r="H150" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I150" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K150" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M150" s="49">
         <f t="shared" si="2"/>
@@ -7991,13 +7826,13 @@
         <v>38</v>
       </c>
       <c r="I151" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J151" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K151" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M151" s="49">
         <f t="shared" si="2"/>
@@ -8012,13 +7847,13 @@
         <v>43</v>
       </c>
       <c r="I152" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J152" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K152" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M152" s="49">
         <f t="shared" si="2"/>
@@ -8030,16 +7865,16 @@
     </row>
     <row r="153" spans="5:14" x14ac:dyDescent="0.2">
       <c r="H153" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I153" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J153" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K153" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M153" s="49">
         <f t="shared" si="2"/>
@@ -8052,16 +7887,16 @@
     <row r="154" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E154" s="50"/>
       <c r="H154" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I154" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J154" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K154" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M154" s="49">
         <f t="shared" si="2"/>
@@ -8077,13 +7912,13 @@
         <v>11</v>
       </c>
       <c r="I155" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J155" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K155" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M155" s="49">
         <f t="shared" si="2"/>
@@ -8096,16 +7931,16 @@
     <row r="156" spans="5:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E156" s="50"/>
       <c r="H156" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I156" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J156" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K156" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M156" s="49">
         <f t="shared" si="2"/>
@@ -8123,13 +7958,13 @@
         <v>38</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J157" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K157" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M157" s="49">
         <f t="shared" si="2"/>
@@ -8144,13 +7979,13 @@
         <v>43</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J158" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K158" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M158" s="49">
         <f>N158*1.15</f>
@@ -8162,16 +7997,16 @@
     </row>
     <row r="159" spans="5:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H159" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J159" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K159" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M159" s="49">
         <f t="shared" ref="M159:M179" si="3">N159*1.15</f>
@@ -8183,16 +8018,16 @@
     </row>
     <row r="160" spans="5:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H160" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I160" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J160" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K160" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M160" s="49">
         <f t="shared" si="3"/>
@@ -8204,16 +8039,16 @@
     </row>
     <row r="161" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H161" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I161" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J161" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K161" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M161" s="49">
         <f t="shared" si="3"/>
@@ -8225,16 +8060,16 @@
     </row>
     <row r="162" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H162" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I162" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J162" t="s">
+        <v>64</v>
+      </c>
+      <c r="K162" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J162" t="s">
-        <v>67</v>
-      </c>
-      <c r="K162" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M162" s="49">
         <f>N162*1.15</f>
@@ -8249,13 +8084,13 @@
         <v>11</v>
       </c>
       <c r="I163" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J163" t="s">
         <v>27</v>
       </c>
       <c r="K163" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M163" s="49">
         <f t="shared" si="3"/>
@@ -8267,16 +8102,16 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H164" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I164" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J164" t="s">
         <v>27</v>
       </c>
       <c r="K164" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M164" s="49">
         <f t="shared" si="3"/>
@@ -8295,13 +8130,13 @@
         <v>38</v>
       </c>
       <c r="I165" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J165" t="s">
         <v>27</v>
       </c>
       <c r="K165" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M165" s="49">
         <f t="shared" si="3"/>
@@ -8320,13 +8155,13 @@
         <v>43</v>
       </c>
       <c r="I166" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J166" t="s">
         <v>27</v>
       </c>
       <c r="K166" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M166" s="49">
         <f t="shared" si="3"/>
@@ -8345,13 +8180,13 @@
         <v>11</v>
       </c>
       <c r="I167" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J167" t="s">
         <v>27</v>
       </c>
       <c r="K167" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M167" s="49">
         <f t="shared" si="3"/>
@@ -8367,16 +8202,16 @@
       <c r="C168" s="50"/>
       <c r="D168" s="50"/>
       <c r="H168" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I168" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J168" t="s">
         <v>27</v>
       </c>
       <c r="K168" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M168" s="49">
         <f t="shared" si="3"/>
@@ -8395,13 +8230,13 @@
         <v>38</v>
       </c>
       <c r="I169" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J169" t="s">
         <v>27</v>
       </c>
       <c r="K169" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M169" s="49">
         <f t="shared" si="3"/>
@@ -8420,13 +8255,13 @@
         <v>43</v>
       </c>
       <c r="I170" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J170" t="s">
         <v>27</v>
       </c>
       <c r="K170" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M170" s="49">
         <f t="shared" si="3"/>
@@ -8442,16 +8277,16 @@
       <c r="C171" s="50"/>
       <c r="D171" s="50"/>
       <c r="H171" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I171" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J171" t="s">
         <v>27</v>
       </c>
       <c r="K171" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M171" s="49">
         <f t="shared" si="3"/>
@@ -8467,16 +8302,16 @@
       <c r="C172" s="50"/>
       <c r="D172" s="50"/>
       <c r="H172" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I172" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J172" t="s">
         <v>27</v>
       </c>
       <c r="K172" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M172" s="49">
         <f t="shared" si="3"/>
@@ -8495,13 +8330,13 @@
         <v>11</v>
       </c>
       <c r="I173" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J173" t="s">
         <v>27</v>
       </c>
       <c r="K173" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M173" s="49">
         <f t="shared" si="3"/>
@@ -8517,16 +8352,16 @@
       <c r="C174" s="50"/>
       <c r="D174" s="50"/>
       <c r="H174" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I174" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J174" t="s">
         <v>27</v>
       </c>
       <c r="K174" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M174" s="49">
         <f t="shared" si="3"/>
@@ -8545,13 +8380,13 @@
         <v>38</v>
       </c>
       <c r="I175" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J175" t="s">
         <v>27</v>
       </c>
       <c r="K175" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M175" s="49">
         <f t="shared" si="3"/>
@@ -8570,13 +8405,13 @@
         <v>43</v>
       </c>
       <c r="I176" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J176" t="s">
         <v>27</v>
       </c>
       <c r="K176" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M176" s="49">
         <f t="shared" si="3"/>
@@ -8592,16 +8427,16 @@
       <c r="C177" s="50"/>
       <c r="D177" s="50"/>
       <c r="H177" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I177" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J177" t="s">
         <v>27</v>
       </c>
       <c r="K177" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M177" s="49">
         <f t="shared" si="3"/>
@@ -8617,16 +8452,16 @@
       <c r="C178" s="50"/>
       <c r="D178" s="50"/>
       <c r="H178" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I178" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J178" t="s">
         <v>27</v>
       </c>
       <c r="K178" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M178" s="49">
         <f t="shared" si="3"/>
@@ -8638,20 +8473,20 @@
     </row>
     <row r="179" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E179" s="50"/>
       <c r="H179" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I179" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J179" t="s">
         <v>27</v>
       </c>
       <c r="K179" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M179" s="49">
         <f t="shared" si="3"/>
@@ -8664,16 +8499,16 @@
     <row r="180" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E180" s="50"/>
       <c r="H180" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I180" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J180" t="s">
         <v>27</v>
       </c>
       <c r="K180" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M180" s="49">
         <f>N180*1.15</f>
@@ -8691,13 +8526,13 @@
         <v>11</v>
       </c>
       <c r="I181" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J181" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K181" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M181" s="49">
         <f t="shared" ref="M181:M197" si="4">N181*1.15</f>
@@ -8709,16 +8544,16 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H182" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I182" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J182" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K182" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M182" s="49">
         <f t="shared" si="4"/>
@@ -8733,13 +8568,13 @@
         <v>38</v>
       </c>
       <c r="I183" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J183" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K183" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M183" s="49">
         <f t="shared" si="4"/>
@@ -8754,13 +8589,13 @@
         <v>43</v>
       </c>
       <c r="I184" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J184" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K184" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M184" s="49">
         <f>N184*1.15</f>
@@ -8775,13 +8610,13 @@
         <v>11</v>
       </c>
       <c r="I185" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J185" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K185" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M185" s="49">
         <f t="shared" si="4"/>
@@ -8793,16 +8628,16 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H186" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I186" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J186" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K186" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M186" s="49">
         <f t="shared" si="4"/>
@@ -8817,13 +8652,13 @@
         <v>38</v>
       </c>
       <c r="I187" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J187" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K187" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M187" s="49">
         <f t="shared" si="4"/>
@@ -8838,13 +8673,13 @@
         <v>43</v>
       </c>
       <c r="I188" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J188" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K188" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M188" s="49">
         <f t="shared" si="4"/>
@@ -8856,16 +8691,16 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H189" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I189" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J189" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K189" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M189" s="49">
         <f t="shared" si="4"/>
@@ -8877,16 +8712,16 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H190" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I190" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J190" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K190" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M190" s="49">
         <f t="shared" si="4"/>
@@ -8901,13 +8736,13 @@
         <v>11</v>
       </c>
       <c r="I191" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K191" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M191" s="49">
         <f t="shared" si="4"/>
@@ -8919,16 +8754,16 @@
     </row>
     <row r="192" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H192" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I192" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J192" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K192" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M192" s="49">
         <f t="shared" si="4"/>
@@ -8943,13 +8778,13 @@
         <v>38</v>
       </c>
       <c r="I193" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J193" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K193" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M193" s="49">
         <f t="shared" si="4"/>
@@ -8964,13 +8799,13 @@
         <v>43</v>
       </c>
       <c r="I194" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J194" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K194" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M194" s="49">
         <f t="shared" si="4"/>
@@ -8982,16 +8817,16 @@
     </row>
     <row r="195" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H195" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I195" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J195" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K195" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M195" s="49">
         <f t="shared" si="4"/>
@@ -9003,16 +8838,16 @@
     </row>
     <row r="196" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H196" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I196" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J196" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K196" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M196" s="49">
         <f t="shared" si="4"/>
@@ -9024,16 +8859,16 @@
     </row>
     <row r="197" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H197" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I197" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J197" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K197" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M197" s="49">
         <f t="shared" si="4"/>
@@ -9045,16 +8880,16 @@
     </row>
     <row r="198" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H198" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I198" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J198" t="s">
+        <v>67</v>
+      </c>
+      <c r="K198" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J198" t="s">
-        <v>70</v>
-      </c>
-      <c r="K198" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M198" s="49">
         <f>N198*1.15</f>
@@ -9069,13 +8904,13 @@
         <v>11</v>
       </c>
       <c r="I199" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J199" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K199" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M199" s="49">
         <f t="shared" ref="M199:M218" si="5">N199*1.15</f>
@@ -9087,16 +8922,16 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H200" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I200" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J200" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K200" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M200" s="49">
         <f t="shared" si="5"/>
@@ -9115,13 +8950,13 @@
         <v>38</v>
       </c>
       <c r="I201" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J201" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K201" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M201" s="49">
         <f t="shared" si="5"/>
@@ -9140,13 +8975,13 @@
         <v>43</v>
       </c>
       <c r="I202" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J202" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K202" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M202" s="49">
         <f>N202*1.15</f>
@@ -9166,13 +9001,13 @@
         <v>11</v>
       </c>
       <c r="I203" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J203" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K203" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M203" s="49">
         <f t="shared" si="5"/>
@@ -9189,16 +9024,16 @@
       <c r="D204" s="50"/>
       <c r="E204" s="50"/>
       <c r="H204" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I204" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J204" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K204" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M204" s="49">
         <f t="shared" si="5"/>
@@ -9218,13 +9053,13 @@
         <v>38</v>
       </c>
       <c r="I205" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J205" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K205" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M205" s="49">
         <f t="shared" si="5"/>
@@ -9244,13 +9079,13 @@
         <v>43</v>
       </c>
       <c r="I206" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J206" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K206" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M206" s="49">
         <f t="shared" si="5"/>
@@ -9267,16 +9102,16 @@
       <c r="D207" s="50"/>
       <c r="E207" s="50"/>
       <c r="H207" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I207" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J207" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K207" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M207" s="49">
         <f t="shared" si="5"/>
@@ -9293,16 +9128,16 @@
       <c r="D208" s="50"/>
       <c r="E208" s="50"/>
       <c r="H208" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I208" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J208" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K208" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M208" s="49">
         <f t="shared" si="5"/>
@@ -9322,13 +9157,13 @@
         <v>11</v>
       </c>
       <c r="I209" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J209" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K209" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M209" s="49">
         <f t="shared" si="5"/>
@@ -9345,16 +9180,16 @@
       <c r="D210" s="50"/>
       <c r="E210" s="50"/>
       <c r="H210" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I210" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J210" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K210" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M210" s="49">
         <f t="shared" si="5"/>
@@ -9374,13 +9209,13 @@
         <v>38</v>
       </c>
       <c r="I211" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J211" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K211" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M211" s="49">
         <f t="shared" si="5"/>
@@ -9400,13 +9235,13 @@
         <v>43</v>
       </c>
       <c r="I212" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J212" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K212" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M212" s="49">
         <f t="shared" si="5"/>
@@ -9418,22 +9253,22 @@
     </row>
     <row r="213" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E213" t="s">
         <v>3</v>
       </c>
       <c r="H213" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I213" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J213" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K213" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M213" s="49">
         <f t="shared" si="5"/>
@@ -9445,16 +9280,16 @@
     </row>
     <row r="214" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H214" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I214" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J214" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K214" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M214" s="49">
         <f t="shared" si="5"/>
@@ -9466,16 +9301,16 @@
     </row>
     <row r="215" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H215" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I215" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J215" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K215" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M215" s="49">
         <f t="shared" si="5"/>
@@ -9487,16 +9322,16 @@
     </row>
     <row r="216" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H216" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I216" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J216" t="s">
+        <v>68</v>
+      </c>
+      <c r="K216" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J216" t="s">
-        <v>71</v>
-      </c>
-      <c r="K216" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M216" s="49">
         <f t="shared" si="5"/>
@@ -9511,13 +9346,13 @@
         <v>11</v>
       </c>
       <c r="I217" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J217" t="s">
         <v>28</v>
       </c>
       <c r="K217" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M217" s="49">
         <f t="shared" si="5"/>
@@ -9529,16 +9364,16 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H218" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I218" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J218" t="s">
         <v>28</v>
       </c>
       <c r="K218" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M218" s="49">
         <f t="shared" si="5"/>
@@ -9553,13 +9388,13 @@
         <v>38</v>
       </c>
       <c r="I219" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J219" t="s">
         <v>28</v>
       </c>
       <c r="K219" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M219" s="49">
         <f>N219*1.15</f>
@@ -9574,13 +9409,13 @@
         <v>43</v>
       </c>
       <c r="I220" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J220" t="s">
         <v>28</v>
       </c>
       <c r="K220" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M220" s="49">
         <f t="shared" ref="M220:M239" si="6">N220*1.15</f>
@@ -9595,13 +9430,13 @@
         <v>11</v>
       </c>
       <c r="I221" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J221" t="s">
         <v>28</v>
       </c>
       <c r="K221" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M221" s="49">
         <f t="shared" si="6"/>
@@ -9613,16 +9448,16 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H222" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I222" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J222" t="s">
         <v>28</v>
       </c>
       <c r="K222" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M222" s="49">
         <f t="shared" si="6"/>
@@ -9637,13 +9472,13 @@
         <v>38</v>
       </c>
       <c r="I223" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J223" t="s">
         <v>28</v>
       </c>
       <c r="K223" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M223" s="49">
         <f>N223*1.15</f>
@@ -9658,13 +9493,13 @@
         <v>43</v>
       </c>
       <c r="I224" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J224" t="s">
         <v>28</v>
       </c>
       <c r="K224" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M224" s="49">
         <f t="shared" si="6"/>
@@ -9676,16 +9511,16 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H225" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I225" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J225" t="s">
         <v>28</v>
       </c>
       <c r="K225" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M225" s="49">
         <f t="shared" si="6"/>
@@ -9697,16 +9532,16 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H226" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I226" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J226" t="s">
         <v>28</v>
       </c>
       <c r="K226" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M226" s="49">
         <f t="shared" si="6"/>
@@ -9721,13 +9556,13 @@
         <v>11</v>
       </c>
       <c r="I227" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J227" t="s">
         <v>28</v>
       </c>
       <c r="K227" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M227" s="49">
         <f t="shared" si="6"/>
@@ -9739,16 +9574,16 @@
     </row>
     <row r="228" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H228" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I228" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J228" t="s">
         <v>28</v>
       </c>
       <c r="K228" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M228" s="49">
         <f t="shared" si="6"/>
@@ -9763,13 +9598,13 @@
         <v>38</v>
       </c>
       <c r="I229" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J229" t="s">
         <v>28</v>
       </c>
       <c r="K229" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M229" s="49">
         <f t="shared" si="6"/>
@@ -9784,13 +9619,13 @@
         <v>43</v>
       </c>
       <c r="I230" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J230" t="s">
         <v>28</v>
       </c>
       <c r="K230" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M230" s="49">
         <f t="shared" si="6"/>
@@ -9802,16 +9637,16 @@
     </row>
     <row r="231" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H231" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I231" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J231" t="s">
         <v>28</v>
       </c>
       <c r="K231" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M231" s="49">
         <f t="shared" si="6"/>
@@ -9823,16 +9658,16 @@
     </row>
     <row r="232" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H232" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I232" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J232" t="s">
         <v>28</v>
       </c>
       <c r="K232" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M232" s="49">
         <f t="shared" si="6"/>
@@ -9844,16 +9679,16 @@
     </row>
     <row r="233" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H233" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I233" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J233" t="s">
         <v>28</v>
       </c>
       <c r="K233" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M233" s="49">
         <f t="shared" si="6"/>
@@ -9865,16 +9700,16 @@
     </row>
     <row r="234" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H234" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I234" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J234" t="s">
         <v>28</v>
       </c>
       <c r="K234" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M234" s="49">
         <f t="shared" si="6"/>
@@ -9894,13 +9729,13 @@
         <v>11</v>
       </c>
       <c r="I235" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J235" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K235" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M235" s="49">
         <f t="shared" si="6"/>
@@ -9917,16 +9752,16 @@
       <c r="D236" s="50"/>
       <c r="E236" s="50"/>
       <c r="H236" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I236" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J236" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K236" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M236" s="49">
         <f t="shared" si="6"/>
@@ -9946,13 +9781,13 @@
         <v>38</v>
       </c>
       <c r="I237" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J237" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K237" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M237" s="49">
         <f t="shared" si="6"/>
@@ -9972,13 +9807,13 @@
         <v>43</v>
       </c>
       <c r="I238" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J238" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K238" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M238" s="49">
         <f t="shared" si="6"/>
@@ -9998,13 +9833,13 @@
         <v>11</v>
       </c>
       <c r="I239" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J239" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K239" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M239" s="49">
         <f t="shared" si="6"/>
@@ -10021,16 +9856,16 @@
       <c r="D240" s="50"/>
       <c r="E240" s="50"/>
       <c r="H240" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I240" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J240" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K240" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M240" s="49">
         <f>N240*1.15</f>
@@ -10050,13 +9885,13 @@
         <v>38</v>
       </c>
       <c r="I241" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J241" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K241" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M241" s="49">
         <f t="shared" ref="M241:M261" si="7">N241*1.15</f>
@@ -10076,13 +9911,13 @@
         <v>43</v>
       </c>
       <c r="I242" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J242" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K242" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M242" s="49">
         <f t="shared" si="7"/>
@@ -10099,16 +9934,16 @@
       <c r="D243" s="50"/>
       <c r="E243" s="50"/>
       <c r="H243" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I243" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J243" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K243" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M243" s="49">
         <f t="shared" si="7"/>
@@ -10125,16 +9960,16 @@
       <c r="D244" s="50"/>
       <c r="E244" s="50"/>
       <c r="H244" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I244" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J244" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K244" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M244" s="49">
         <f>N244*1.15</f>
@@ -10154,13 +9989,13 @@
         <v>11</v>
       </c>
       <c r="I245" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J245" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K245" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M245" s="49">
         <f t="shared" si="7"/>
@@ -10177,16 +10012,16 @@
       <c r="D246" s="50"/>
       <c r="E246" s="50"/>
       <c r="H246" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I246" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J246" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K246" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M246" s="49">
         <f t="shared" si="7"/>
@@ -10206,13 +10041,13 @@
         <v>38</v>
       </c>
       <c r="I247" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J247" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K247" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M247" s="49">
         <f t="shared" si="7"/>
@@ -10232,13 +10067,13 @@
         <v>43</v>
       </c>
       <c r="I248" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J248" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K248" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M248" s="49">
         <f t="shared" si="7"/>
@@ -10255,16 +10090,16 @@
       <c r="D249" s="50"/>
       <c r="E249" s="50"/>
       <c r="H249" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I249" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J249" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K249" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M249" s="49">
         <f t="shared" si="7"/>
@@ -10283,16 +10118,16 @@
         <v>3</v>
       </c>
       <c r="H250" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I250" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J250" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K250" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M250" s="49">
         <f t="shared" si="7"/>
@@ -10308,16 +10143,16 @@
       <c r="C251" s="50"/>
       <c r="D251" s="50"/>
       <c r="H251" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I251" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J251" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K251" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M251" s="49">
         <f t="shared" si="7"/>
@@ -10333,16 +10168,16 @@
       <c r="C252" s="50"/>
       <c r="D252" s="50"/>
       <c r="H252" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I252" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J252" t="s">
+        <v>69</v>
+      </c>
+      <c r="K252" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J252" t="s">
-        <v>72</v>
-      </c>
-      <c r="K252" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M252" s="49">
         <f t="shared" si="7"/>
@@ -10361,13 +10196,13 @@
         <v>11</v>
       </c>
       <c r="I253" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J253" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K253" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M253" s="49">
         <f t="shared" si="7"/>
@@ -10383,16 +10218,16 @@
       <c r="C254" s="50"/>
       <c r="D254" s="50"/>
       <c r="H254" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I254" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J254" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K254" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M254" s="49">
         <f t="shared" si="7"/>
@@ -10411,13 +10246,13 @@
         <v>38</v>
       </c>
       <c r="I255" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J255" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K255" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M255" s="49">
         <f t="shared" si="7"/>
@@ -10436,13 +10271,13 @@
         <v>43</v>
       </c>
       <c r="I256" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J256" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K256" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M256" s="49">
         <f t="shared" si="7"/>
@@ -10461,13 +10296,13 @@
         <v>11</v>
       </c>
       <c r="I257" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J257" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K257" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M257" s="49">
         <f t="shared" si="7"/>
@@ -10483,16 +10318,16 @@
       <c r="C258" s="50"/>
       <c r="D258" s="50"/>
       <c r="H258" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I258" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J258" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K258" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M258" s="49">
         <f t="shared" si="7"/>
@@ -10511,13 +10346,13 @@
         <v>38</v>
       </c>
       <c r="I259" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J259" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K259" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M259" s="49">
         <f t="shared" si="7"/>
@@ -10536,13 +10371,13 @@
         <v>43</v>
       </c>
       <c r="I260" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J260" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K260" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M260" s="49">
         <f t="shared" si="7"/>
@@ -10558,16 +10393,16 @@
       <c r="C261" s="50"/>
       <c r="D261" s="50"/>
       <c r="H261" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I261" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J261" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K261" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M261" s="49">
         <f t="shared" si="7"/>
@@ -10583,16 +10418,16 @@
       <c r="C262" s="50"/>
       <c r="D262" s="50"/>
       <c r="H262" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I262" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J262" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K262" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M262" s="49">
         <f>N262*1.15</f>
@@ -10604,19 +10439,19 @@
     </row>
     <row r="263" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H263" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I263" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J263" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K263" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M263" s="49">
         <f t="shared" ref="M263:M280" si="8">N263*1.15</f>
@@ -10628,16 +10463,16 @@
     </row>
     <row r="264" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H264" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I264" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J264" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K264" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M264" s="49">
         <f t="shared" si="8"/>
@@ -10652,13 +10487,13 @@
         <v>38</v>
       </c>
       <c r="I265" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J265" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K265" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M265" s="49">
         <f t="shared" si="8"/>
@@ -10673,13 +10508,13 @@
         <v>43</v>
       </c>
       <c r="I266" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J266" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K266" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M266" s="49">
         <f>N266*1.15</f>
@@ -10691,16 +10526,16 @@
     </row>
     <row r="267" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H267" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I267" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J267" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K267" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M267" s="49">
         <f t="shared" si="8"/>
@@ -10712,16 +10547,16 @@
     </row>
     <row r="268" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H268" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I268" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J268" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K268" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M268" s="49">
         <f t="shared" si="8"/>
@@ -10733,16 +10568,16 @@
     </row>
     <row r="269" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H269" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I269" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J269" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K269" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M269" s="49">
         <f t="shared" si="8"/>
@@ -10754,16 +10589,16 @@
     </row>
     <row r="270" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="H270" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I270" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J270" t="s">
+        <v>70</v>
+      </c>
+      <c r="K270" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J270" t="s">
-        <v>73</v>
-      </c>
-      <c r="K270" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M270" s="49">
         <f t="shared" si="8"/>
@@ -10778,13 +10613,13 @@
         <v>11</v>
       </c>
       <c r="I271" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J271" t="s">
         <v>29</v>
       </c>
       <c r="K271" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M271" s="49">
         <f t="shared" si="8"/>
@@ -10797,16 +10632,16 @@
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E272" s="50"/>
       <c r="H272" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I272" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J272" t="s">
         <v>29</v>
       </c>
       <c r="K272" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M272" s="49">
         <f t="shared" si="8"/>
@@ -10822,13 +10657,13 @@
         <v>38</v>
       </c>
       <c r="I273" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J273" t="s">
         <v>29</v>
       </c>
       <c r="K273" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M273" s="49">
         <f t="shared" si="8"/>
@@ -10844,13 +10679,13 @@
         <v>43</v>
       </c>
       <c r="I274" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J274" t="s">
         <v>29</v>
       </c>
       <c r="K274" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M274" s="49">
         <f t="shared" si="8"/>
@@ -10866,13 +10701,13 @@
         <v>11</v>
       </c>
       <c r="I275" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J275" t="s">
         <v>29</v>
       </c>
       <c r="K275" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M275" s="49">
         <f t="shared" si="8"/>
@@ -10885,16 +10720,16 @@
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E276" s="50"/>
       <c r="H276" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I276" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J276" t="s">
         <v>29</v>
       </c>
       <c r="K276" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M276" s="49">
         <f t="shared" si="8"/>
@@ -10910,13 +10745,13 @@
         <v>38</v>
       </c>
       <c r="I277" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J277" t="s">
         <v>29</v>
       </c>
       <c r="K277" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M277" s="49">
         <f t="shared" si="8"/>
@@ -10932,13 +10767,13 @@
         <v>43</v>
       </c>
       <c r="I278" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J278" t="s">
         <v>29</v>
       </c>
       <c r="K278" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M278" s="49">
         <f t="shared" si="8"/>
@@ -10951,16 +10786,16 @@
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E279" s="50"/>
       <c r="H279" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I279" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J279" t="s">
         <v>29</v>
       </c>
       <c r="K279" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M279" s="49">
         <f t="shared" si="8"/>
@@ -10973,16 +10808,16 @@
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E280" s="50"/>
       <c r="H280" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I280" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J280" t="s">
         <v>29</v>
       </c>
       <c r="K280" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M280" s="49">
         <f t="shared" si="8"/>
@@ -10998,13 +10833,13 @@
         <v>11</v>
       </c>
       <c r="I281" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J281" t="s">
         <v>29</v>
       </c>
       <c r="K281" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M281" s="49">
         <f>N281*1.15</f>
@@ -11017,16 +10852,16 @@
     <row r="282" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E282" s="50"/>
       <c r="H282" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I282" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J282" t="s">
         <v>29</v>
       </c>
       <c r="K282" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M282" s="49">
         <f t="shared" ref="M282:M306" si="9">N282*1.15</f>
@@ -11042,13 +10877,13 @@
         <v>38</v>
       </c>
       <c r="I283" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J283" t="s">
         <v>29</v>
       </c>
       <c r="K283" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M283" s="49">
         <f t="shared" si="9"/>
@@ -11064,13 +10899,13 @@
         <v>43</v>
       </c>
       <c r="I284" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J284" t="s">
         <v>29</v>
       </c>
       <c r="K284" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M284" s="49">
         <f t="shared" si="9"/>
@@ -11087,16 +10922,16 @@
       <c r="D285" s="50"/>
       <c r="E285" s="50"/>
       <c r="H285" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I285" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J285" t="s">
         <v>29</v>
       </c>
       <c r="K285" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M285" s="49">
         <f>N285*1.15</f>
@@ -11115,16 +10950,16 @@
         <v>3</v>
       </c>
       <c r="H286" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I286" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J286" t="s">
         <v>29</v>
       </c>
       <c r="K286" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M286" s="49">
         <f t="shared" si="9"/>
@@ -11140,16 +10975,16 @@
       <c r="C287" s="50"/>
       <c r="D287" s="50"/>
       <c r="H287" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I287" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J287" t="s">
         <v>29</v>
       </c>
       <c r="K287" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M287" s="49">
         <f t="shared" si="9"/>
@@ -11165,16 +11000,16 @@
       <c r="C288" s="50"/>
       <c r="D288" s="50"/>
       <c r="H288" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I288" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J288" t="s">
         <v>29</v>
       </c>
       <c r="K288" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M288" s="49">
         <f t="shared" si="9"/>
@@ -11193,13 +11028,13 @@
         <v>11</v>
       </c>
       <c r="I289" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J289" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K289" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M289" s="49">
         <f t="shared" si="9"/>
@@ -11215,16 +11050,16 @@
       <c r="C290" s="50"/>
       <c r="D290" s="50"/>
       <c r="H290" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I290" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J290" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K290" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M290" s="49">
         <f t="shared" si="9"/>
@@ -11243,13 +11078,13 @@
         <v>38</v>
       </c>
       <c r="I291" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J291" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K291" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M291" s="49">
         <f t="shared" si="9"/>
@@ -11268,13 +11103,13 @@
         <v>43</v>
       </c>
       <c r="I292" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J292" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K292" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M292" s="49">
         <f t="shared" si="9"/>
@@ -11293,13 +11128,13 @@
         <v>11</v>
       </c>
       <c r="I293" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J293" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K293" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M293" s="49">
         <f t="shared" si="9"/>
@@ -11315,16 +11150,16 @@
       <c r="C294" s="50"/>
       <c r="D294" s="50"/>
       <c r="H294" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I294" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J294" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K294" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M294" s="49">
         <f t="shared" si="9"/>
@@ -11343,13 +11178,13 @@
         <v>38</v>
       </c>
       <c r="I295" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K295" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M295" s="49">
         <f t="shared" si="9"/>
@@ -11368,13 +11203,13 @@
         <v>43</v>
       </c>
       <c r="I296" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J296" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K296" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M296" s="49">
         <f t="shared" si="9"/>
@@ -11390,16 +11225,16 @@
       <c r="C297" s="50"/>
       <c r="D297" s="50"/>
       <c r="H297" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I297" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J297" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K297" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M297" s="49">
         <f t="shared" si="9"/>
@@ -11415,16 +11250,16 @@
       <c r="C298" s="50"/>
       <c r="D298" s="50"/>
       <c r="H298" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I298" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J298" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K298" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M298" s="49">
         <f t="shared" si="9"/>
@@ -11443,13 +11278,13 @@
         <v>11</v>
       </c>
       <c r="I299" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J299" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K299" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M299" s="49">
         <f t="shared" si="9"/>
@@ -11465,16 +11300,16 @@
       <c r="C300" s="50"/>
       <c r="D300" s="50"/>
       <c r="H300" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I300" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J300" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K300" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M300" s="49">
         <f t="shared" si="9"/>
@@ -11493,13 +11328,13 @@
         <v>38</v>
       </c>
       <c r="I301" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J301" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K301" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M301" s="49">
         <f t="shared" si="9"/>
@@ -11518,13 +11353,13 @@
         <v>43</v>
       </c>
       <c r="I302" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J302" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K302" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M302" s="49">
         <f t="shared" si="9"/>
@@ -11540,16 +11375,16 @@
       <c r="C303" s="50"/>
       <c r="D303" s="50"/>
       <c r="H303" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I303" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J303" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K303" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M303" s="49">
         <f t="shared" si="9"/>
@@ -11565,16 +11400,16 @@
       <c r="C304" s="50"/>
       <c r="D304" s="50"/>
       <c r="H304" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I304" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J304" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K304" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M304" s="49">
         <f t="shared" si="9"/>
@@ -11590,16 +11425,16 @@
       <c r="C305" s="50"/>
       <c r="D305" s="50"/>
       <c r="H305" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I305" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J305" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K305" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M305" s="49">
         <f t="shared" si="9"/>
@@ -11615,16 +11450,16 @@
       <c r="C306" s="50"/>
       <c r="D306" s="50"/>
       <c r="H306" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I306" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J306" t="s">
+        <v>71</v>
+      </c>
+      <c r="K306" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="J306" t="s">
-        <v>74</v>
-      </c>
-      <c r="K306" s="48" t="s">
-        <v>103</v>
       </c>
       <c r="M306" s="49">
         <f t="shared" si="9"/>
